--- a/Notebooks/results/SHH+p53/SHH+p53_effective_drugs_from_expression.xlsx
+++ b/Notebooks/results/SHH+p53/SHH+p53_effective_drugs_from_expression.xlsx
@@ -37,1231 +37,1231 @@
     <t>bosutinib</t>
   </si>
   <si>
+    <t>betulinic acid</t>
+  </si>
+  <si>
+    <t>gefitinib</t>
+  </si>
+  <si>
+    <t>chir-99021</t>
+  </si>
+  <si>
+    <t>tgx221</t>
+  </si>
+  <si>
+    <t>vandetanib</t>
+  </si>
+  <si>
+    <t>erlotinib</t>
+  </si>
+  <si>
+    <t>l-685458</t>
+  </si>
+  <si>
+    <t>bleomycin</t>
+  </si>
+  <si>
     <t>pazopanib</t>
   </si>
   <si>
-    <t>gefitinib</t>
-  </si>
-  <si>
     <t>gemcitabine</t>
   </si>
   <si>
-    <t>betulinic acid</t>
-  </si>
-  <si>
-    <t>tgx221</t>
-  </si>
-  <si>
-    <t>erlotinib</t>
+    <t>triptolide</t>
+  </si>
+  <si>
+    <t>eht-1864</t>
+  </si>
+  <si>
+    <t>ml203</t>
+  </si>
+  <si>
+    <t>olaparib</t>
+  </si>
+  <si>
+    <t>pyrazolanthrone</t>
+  </si>
+  <si>
+    <t>brd-k16147474</t>
+  </si>
+  <si>
+    <t>neratinib</t>
+  </si>
+  <si>
+    <t>tanespimycin</t>
+  </si>
+  <si>
+    <t>sildenafil</t>
+  </si>
+  <si>
+    <t>bms-509744</t>
+  </si>
+  <si>
+    <t>jq-1</t>
+  </si>
+  <si>
+    <t>momelotinib</t>
+  </si>
+  <si>
+    <t>ml320</t>
+  </si>
+  <si>
+    <t>vinorelbine</t>
+  </si>
+  <si>
+    <t>qs11</t>
+  </si>
+  <si>
+    <t>nvp-tae684</t>
+  </si>
+  <si>
+    <t>embelin</t>
+  </si>
+  <si>
+    <t>jw-55</t>
+  </si>
+  <si>
+    <t>austocystin d</t>
   </si>
   <si>
     <t>neopeltolide</t>
   </si>
   <si>
-    <t>ml203</t>
-  </si>
-  <si>
-    <t>ml320</t>
-  </si>
-  <si>
-    <t>tanespimycin</t>
-  </si>
-  <si>
-    <t>momelotinib</t>
-  </si>
-  <si>
-    <t>chir-99021</t>
-  </si>
-  <si>
-    <t>sildenafil</t>
-  </si>
-  <si>
-    <t>bleomycin</t>
+    <t>fluorouracil</t>
+  </si>
+  <si>
+    <t>zibotentan</t>
+  </si>
+  <si>
+    <t>lapatinib</t>
+  </si>
+  <si>
+    <t>sb216763</t>
+  </si>
+  <si>
+    <t>teniposide</t>
+  </si>
+  <si>
+    <t>fh535</t>
+  </si>
+  <si>
+    <t>silmitasertib</t>
+  </si>
+  <si>
+    <t>doxorubicin</t>
+  </si>
+  <si>
+    <t>wz8040</t>
+  </si>
+  <si>
+    <t>thapsigargin</t>
+  </si>
+  <si>
+    <t>pyrimethamine</t>
+  </si>
+  <si>
+    <t>afatinib</t>
+  </si>
+  <si>
+    <t>as605240</t>
+  </si>
+  <si>
+    <t>brd-k52037352</t>
+  </si>
+  <si>
+    <t>(5z)-7-oxozeaenol</t>
+  </si>
+  <si>
+    <t>ml312</t>
+  </si>
+  <si>
+    <t>brd-k13999467</t>
+  </si>
+  <si>
+    <t>tipifarnib</t>
+  </si>
+  <si>
+    <t>gsk269962a</t>
+  </si>
+  <si>
+    <t>xmd11-85h</t>
+  </si>
+  <si>
+    <t>stemregenin 1</t>
+  </si>
+  <si>
+    <t>as601245</t>
+  </si>
+  <si>
+    <t>brd-k75293299</t>
+  </si>
+  <si>
+    <t>jnk-9l</t>
+  </si>
+  <si>
+    <t>wh-4-023</t>
+  </si>
+  <si>
+    <t>le-135</t>
+  </si>
+  <si>
+    <t>az628</t>
+  </si>
+  <si>
+    <t>pf-562271</t>
   </si>
   <si>
     <t>gsk-3 inhibitor ix</t>
   </si>
   <si>
-    <t>afatinib</t>
-  </si>
-  <si>
-    <t>zibotentan</t>
-  </si>
-  <si>
-    <t>vandetanib</t>
+    <t>ku-55933</t>
+  </si>
+  <si>
+    <t>pf-4708671</t>
+  </si>
+  <si>
+    <t>pyr-41</t>
+  </si>
+  <si>
+    <t>luminespib</t>
+  </si>
+  <si>
+    <t>midostaurin</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>pd0325901</t>
+  </si>
+  <si>
+    <t>nsc-87877</t>
+  </si>
+  <si>
+    <t>darinaparsin</t>
+  </si>
+  <si>
+    <t>sl0101</t>
+  </si>
+  <si>
+    <t>nutlin-3a (-)</t>
+  </si>
+  <si>
+    <t>pfi-1</t>
+  </si>
+  <si>
+    <t>zd-6474</t>
+  </si>
+  <si>
+    <t>gw441756</t>
+  </si>
+  <si>
+    <t>bryostatin 1</t>
+  </si>
+  <si>
+    <t>nvp-231</t>
+  </si>
+  <si>
+    <t>bcl-lzh-4</t>
+  </si>
+  <si>
+    <t>selumetinib</t>
+  </si>
+  <si>
+    <t>nu7441</t>
+  </si>
+  <si>
+    <t>repligen 136</t>
   </si>
   <si>
     <t>fqi-1</t>
   </si>
   <si>
-    <t>ml312</t>
-  </si>
-  <si>
-    <t>968</t>
-  </si>
-  <si>
-    <t>nvp-231</t>
-  </si>
-  <si>
-    <t>lapatinib</t>
-  </si>
-  <si>
-    <t>thapsigargin</t>
-  </si>
-  <si>
-    <t>vinorelbine</t>
-  </si>
-  <si>
-    <t>neratinib</t>
-  </si>
-  <si>
-    <t>nvp-tae684</t>
+    <t>brd-k44224150</t>
+  </si>
+  <si>
+    <t>decitabine</t>
+  </si>
+  <si>
+    <t>tamoxifen</t>
+  </si>
+  <si>
+    <t>a-443654</t>
+  </si>
+  <si>
+    <t>fsc231</t>
+  </si>
+  <si>
+    <t>cisplatin</t>
+  </si>
+  <si>
+    <t>cyclophosphamide</t>
+  </si>
+  <si>
+    <t>gsk525762a</t>
+  </si>
+  <si>
+    <t>brivanib</t>
+  </si>
+  <si>
+    <t>qs-11</t>
+  </si>
+  <si>
+    <t>chm-1</t>
+  </si>
+  <si>
+    <t>ql-viii-58</t>
+  </si>
+  <si>
+    <t>palbociclib</t>
+  </si>
+  <si>
+    <t>xmd8-85</t>
+  </si>
+  <si>
+    <t>bms-195614</t>
+  </si>
+  <si>
+    <t>sgc0946</t>
+  </si>
+  <si>
+    <t>fqi-2</t>
+  </si>
+  <si>
+    <t>obatoclax</t>
+  </si>
+  <si>
+    <t>brd-k30019337</t>
+  </si>
+  <si>
+    <t>cyclopamine</t>
+  </si>
+  <si>
+    <t>cytarabine hydrochloride</t>
+  </si>
+  <si>
+    <t>pf-4800567 hydrochloride</t>
+  </si>
+  <si>
+    <t>clofarabine</t>
+  </si>
+  <si>
+    <t>fmk</t>
+  </si>
+  <si>
+    <t>brd-k11533227</t>
+  </si>
+  <si>
+    <t>hg6-64-1</t>
+  </si>
+  <si>
+    <t>gsk650394</t>
+  </si>
+  <si>
+    <t>gsk461364</t>
   </si>
   <si>
     <t>bicalutamide</t>
   </si>
   <si>
-    <t>eht-1864</t>
-  </si>
-  <si>
-    <t>teniposide</t>
-  </si>
-  <si>
-    <t>jq-1</t>
-  </si>
-  <si>
-    <t>l-685458</t>
+    <t>gsk1904529a</t>
+  </si>
+  <si>
+    <t>dactolisib</t>
+  </si>
+  <si>
+    <t>saracatinib</t>
+  </si>
+  <si>
+    <t>compound 7d-cis</t>
+  </si>
+  <si>
+    <t>elesclomol</t>
+  </si>
+  <si>
+    <t>pd173074</t>
+  </si>
+  <si>
+    <t>pifithrin-mu</t>
+  </si>
+  <si>
+    <t>abt-199</t>
+  </si>
+  <si>
+    <t>brd-k99006945</t>
+  </si>
+  <si>
+    <t>aa-cocf3</t>
+  </si>
+  <si>
+    <t>unc0321</t>
+  </si>
+  <si>
+    <t>sch-79797</t>
+  </si>
+  <si>
+    <t>rucaparib</t>
+  </si>
+  <si>
+    <t>ku-60019</t>
+  </si>
+  <si>
+    <t>cgp-082996</t>
+  </si>
+  <si>
+    <t>trametinib</t>
+  </si>
+  <si>
+    <t>neuronal differentiation inducer iii</t>
+  </si>
+  <si>
+    <t>azd6482</t>
+  </si>
+  <si>
+    <t>seliciclib</t>
+  </si>
+  <si>
+    <t>hg-5-88-01</t>
+  </si>
+  <si>
+    <t>o-6-benzylguanine</t>
+  </si>
+  <si>
+    <t>compound 1b</t>
+  </si>
+  <si>
+    <t>hbx-41108</t>
+  </si>
+  <si>
+    <t>pha-665752</t>
+  </si>
+  <si>
+    <t>brd-k51490254</t>
+  </si>
+  <si>
+    <t>sch-529074</t>
+  </si>
+  <si>
+    <t>ml258</t>
+  </si>
+  <si>
+    <t>mk-1775</t>
+  </si>
+  <si>
+    <t>brd-k85133207</t>
+  </si>
+  <si>
+    <t>canertinib</t>
+  </si>
+  <si>
+    <t>merck60</t>
+  </si>
+  <si>
+    <t>brd4132</t>
+  </si>
+  <si>
+    <t>pelitinib</t>
+  </si>
+  <si>
+    <t>brd-k28456706</t>
+  </si>
+  <si>
+    <t>mi-2</t>
+  </si>
+  <si>
+    <t>blebbistatin</t>
   </si>
   <si>
     <t>pevonedistat</t>
   </si>
   <si>
-    <t>abt-199</t>
-  </si>
-  <si>
-    <t>embelin</t>
+    <t>brd-k04800985</t>
+  </si>
+  <si>
+    <t>dacarbazine</t>
   </si>
   <si>
     <t>sb590885</t>
   </si>
   <si>
-    <t>sb216763</t>
-  </si>
-  <si>
-    <t>brd-k13999467</t>
-  </si>
-  <si>
-    <t>jnk-9l</t>
-  </si>
-  <si>
-    <t>pyr-41</t>
-  </si>
-  <si>
-    <t>brd-k44224150</t>
-  </si>
-  <si>
-    <t>bcl-lzh-4</t>
-  </si>
-  <si>
-    <t>saracatinib</t>
-  </si>
-  <si>
-    <t>olaparib</t>
-  </si>
-  <si>
-    <t>austocystin d</t>
-  </si>
-  <si>
-    <t>midostaurin</t>
-  </si>
-  <si>
-    <t>triptolide</t>
-  </si>
-  <si>
-    <t>as601245</t>
-  </si>
-  <si>
-    <t>pyrazolanthrone</t>
-  </si>
-  <si>
-    <t>gsk269962a</t>
-  </si>
-  <si>
-    <t>brd-k16147474</t>
+    <t>hli 373</t>
+  </si>
+  <si>
+    <t>ml334 diastereomer</t>
+  </si>
+  <si>
+    <t>erastin</t>
+  </si>
+  <si>
+    <t>jw-7-52-1</t>
+  </si>
+  <si>
+    <t>cct007093</t>
+  </si>
+  <si>
+    <t>nintedanib</t>
+  </si>
+  <si>
+    <t>tamatinib</t>
+  </si>
+  <si>
+    <t>vnlg/124</t>
   </si>
   <si>
     <t>azd0530</t>
   </si>
   <si>
-    <t>sl0101</t>
-  </si>
-  <si>
-    <t>pyrimethamine</t>
+    <t>vorapaxar</t>
+  </si>
+  <si>
+    <t>elcpk</t>
+  </si>
+  <si>
+    <t>brd-k34099515</t>
+  </si>
+  <si>
+    <t>tigecycline</t>
+  </si>
+  <si>
+    <t>az-3146</t>
+  </si>
+  <si>
+    <t>brd8899</t>
+  </si>
+  <si>
+    <t>tipifarnib-p2</t>
+  </si>
+  <si>
+    <t>lenalidomide</t>
+  </si>
+  <si>
+    <t>epothilone b</t>
+  </si>
+  <si>
+    <t>nsc95397</t>
+  </si>
+  <si>
+    <t>mln2480</t>
+  </si>
+  <si>
+    <t>rapamycin</t>
+  </si>
+  <si>
+    <t>yk 4-279</t>
+  </si>
+  <si>
+    <t>avicin d</t>
+  </si>
+  <si>
+    <t>a-770041</t>
+  </si>
+  <si>
+    <t>tg-101348</t>
+  </si>
+  <si>
+    <t>681640</t>
+  </si>
+  <si>
+    <t>isoevodiamine</t>
+  </si>
+  <si>
+    <t>tw-37</t>
+  </si>
+  <si>
+    <t>parbendazole</t>
+  </si>
+  <si>
+    <t>brd-k02492147</t>
+  </si>
+  <si>
+    <t>3-cl-ahpc</t>
+  </si>
+  <si>
+    <t>brd-k30748066</t>
+  </si>
+  <si>
+    <t>compound 23 citrate</t>
+  </si>
+  <si>
+    <t>pifithrin-alpha</t>
+  </si>
+  <si>
+    <t>tak-715</t>
+  </si>
+  <si>
+    <t>ly-2157299</t>
+  </si>
+  <si>
+    <t>dexamethasone</t>
+  </si>
+  <si>
+    <t>zg-10</t>
+  </si>
+  <si>
+    <t>cr-1-31b</t>
+  </si>
+  <si>
+    <t>brd-k70511574</t>
+  </si>
+  <si>
+    <t>gant-61</t>
+  </si>
+  <si>
+    <t>agk-2</t>
+  </si>
+  <si>
+    <t>cay10594</t>
+  </si>
+  <si>
+    <t>alvocidib</t>
+  </si>
+  <si>
+    <t>brd-k27224038</t>
+  </si>
+  <si>
+    <t>mgcd-265</t>
+  </si>
+  <si>
+    <t>crizotinib</t>
+  </si>
+  <si>
+    <t>ko-143</t>
+  </si>
+  <si>
+    <t>bibr-1532</t>
+  </si>
+  <si>
+    <t>avagacestat</t>
+  </si>
+  <si>
+    <t>sunitinib</t>
+  </si>
+  <si>
+    <t>ac55649</t>
+  </si>
+  <si>
+    <t>lomeguatrib</t>
+  </si>
+  <si>
+    <t>hg-5-113-01</t>
+  </si>
+  <si>
+    <t>brd-k96431673</t>
+  </si>
+  <si>
+    <t>su11274</t>
+  </si>
+  <si>
+    <t>sr-ii-138a</t>
+  </si>
+  <si>
+    <t>pf-184</t>
+  </si>
+  <si>
+    <t>lbh-589</t>
+  </si>
+  <si>
+    <t>phloretin</t>
+  </si>
+  <si>
+    <t>ciclopirox</t>
+  </si>
+  <si>
+    <t>brd-k61166597</t>
+  </si>
+  <si>
+    <t>i-bet151</t>
+  </si>
+  <si>
+    <t>pandacostat</t>
+  </si>
+  <si>
+    <t>jq1</t>
+  </si>
+  <si>
+    <t>brd1812</t>
+  </si>
+  <si>
+    <t>brd-k14844214</t>
+  </si>
+  <si>
+    <t>dabrafenib</t>
+  </si>
+  <si>
+    <t>brd-a94377914</t>
+  </si>
+  <si>
+    <t>brd-k41597374</t>
+  </si>
+  <si>
+    <t>brd-k80183349</t>
+  </si>
+  <si>
+    <t>refametinib</t>
+  </si>
+  <si>
+    <t>doramapimod</t>
+  </si>
+  <si>
+    <t>dasatinib</t>
+  </si>
+  <si>
+    <t>brd-k41334119</t>
+  </si>
+  <si>
+    <t>mitomycin</t>
+  </si>
+  <si>
+    <t>brd-k48477130</t>
+  </si>
+  <si>
+    <t>sirolimus</t>
+  </si>
+  <si>
+    <t>17-aag</t>
+  </si>
+  <si>
+    <t>brd-k01737880</t>
+  </si>
+  <si>
+    <t>mln2238</t>
+  </si>
+  <si>
+    <t>rg-108</t>
   </si>
   <si>
     <t>nsc30930</t>
   </si>
   <si>
-    <t>qs11</t>
-  </si>
-  <si>
-    <t>tipifarnib</t>
-  </si>
-  <si>
-    <t>fluorouracil</t>
-  </si>
-  <si>
-    <t>cytarabine hydrochloride</t>
-  </si>
-  <si>
-    <t>elcpk</t>
-  </si>
-  <si>
-    <t>bms-509744</t>
-  </si>
-  <si>
-    <t>gsk650394</t>
-  </si>
-  <si>
-    <t>stemregenin 1</t>
-  </si>
-  <si>
-    <t>jw-55</t>
-  </si>
-  <si>
-    <t>tw-37</t>
-  </si>
-  <si>
-    <t>681640</t>
-  </si>
-  <si>
-    <t>brd-k52037352</t>
-  </si>
-  <si>
-    <t>wz8040</t>
-  </si>
-  <si>
     <t>compound 1541a</t>
   </si>
   <si>
-    <t>zd-6474</t>
-  </si>
-  <si>
-    <t>az628</t>
-  </si>
-  <si>
-    <t>brd4132</t>
-  </si>
-  <si>
-    <t>17-aag</t>
-  </si>
-  <si>
-    <t>nsc-87877</t>
-  </si>
-  <si>
-    <t>gsk1904529a</t>
-  </si>
-  <si>
-    <t>lenalidomide</t>
-  </si>
-  <si>
-    <t>le-135</t>
-  </si>
-  <si>
-    <t>luminespib</t>
-  </si>
-  <si>
-    <t>su11274</t>
-  </si>
-  <si>
-    <t>selumetinib</t>
-  </si>
-  <si>
-    <t>fsc231</t>
-  </si>
-  <si>
-    <t>gsk525762a</t>
-  </si>
-  <si>
-    <t>i-bet151</t>
-  </si>
-  <si>
-    <t>dactolisib</t>
-  </si>
-  <si>
-    <t>as605240</t>
-  </si>
-  <si>
-    <t>cyclophosphamide</t>
-  </si>
-  <si>
-    <t>tamatinib</t>
-  </si>
-  <si>
-    <t>jq1</t>
+    <t>brd-k27986637</t>
+  </si>
+  <si>
+    <t>cd-437</t>
+  </si>
+  <si>
+    <t>sb-225002</t>
+  </si>
+  <si>
+    <t>triazolothiadiazine</t>
   </si>
   <si>
     <t>brd9876</t>
   </si>
   <si>
+    <t>obatoclax mesylate</t>
+  </si>
+  <si>
+    <t>kx2-391</t>
+  </si>
+  <si>
+    <t>lestauritinib</t>
+  </si>
+  <si>
     <t>selisistat</t>
   </si>
   <si>
-    <t>nutlin-3a (-)</t>
-  </si>
-  <si>
-    <t>doxorubicin</t>
-  </si>
-  <si>
-    <t>brd-k04800985</t>
-  </si>
-  <si>
-    <t>silmitasertib</t>
-  </si>
-  <si>
-    <t>mgcd-265</t>
-  </si>
-  <si>
-    <t>pd0325901</t>
-  </si>
-  <si>
-    <t>trametinib</t>
-  </si>
-  <si>
-    <t>canertinib</t>
-  </si>
-  <si>
-    <t>ku-55933</t>
-  </si>
-  <si>
-    <t>elesclomol</t>
-  </si>
-  <si>
-    <t>ml258</t>
-  </si>
-  <si>
-    <t>az-3146</t>
-  </si>
-  <si>
-    <t>azd6482</t>
-  </si>
-  <si>
-    <t>brd-k85133207</t>
-  </si>
-  <si>
-    <t>o-6-benzylguanine</t>
-  </si>
-  <si>
-    <t>pf-562271</t>
-  </si>
-  <si>
-    <t>seliciclib</t>
-  </si>
-  <si>
-    <t>bryostatin 1</t>
-  </si>
-  <si>
-    <t>nu7441</t>
-  </si>
-  <si>
-    <t>decitabine</t>
-  </si>
-  <si>
-    <t>wh-4-023</t>
-  </si>
-  <si>
-    <t>brd-k75293299</t>
-  </si>
-  <si>
-    <t>bms-195614</t>
-  </si>
-  <si>
-    <t>obatoclax</t>
-  </si>
-  <si>
-    <t>avagacestat</t>
-  </si>
-  <si>
-    <t>(5z)-7-oxozeaenol</t>
+    <t>necrostatin-7</t>
+  </si>
+  <si>
+    <t>lenvatinib</t>
+  </si>
+  <si>
+    <t>salermide</t>
+  </si>
+  <si>
+    <t>pd318088</t>
+  </si>
+  <si>
+    <t>azd7545</t>
+  </si>
+  <si>
+    <t>gw-843682x</t>
+  </si>
+  <si>
+    <t>brd-k66453893</t>
+  </si>
+  <si>
+    <t>ro-3306</t>
+  </si>
+  <si>
+    <t>ci-976</t>
+  </si>
+  <si>
+    <t>cetuximab</t>
+  </si>
+  <si>
+    <t>cil56</t>
+  </si>
+  <si>
+    <t>gw-2580</t>
+  </si>
+  <si>
+    <t>pd 153035</t>
+  </si>
+  <si>
+    <t>sb-525334</t>
+  </si>
+  <si>
+    <t>npc-26</t>
+  </si>
+  <si>
+    <t>pf-573228</t>
+  </si>
+  <si>
+    <t>nutlin-3</t>
+  </si>
+  <si>
+    <t>necrostatin-1</t>
+  </si>
+  <si>
+    <t>brd-k42260513</t>
+  </si>
+  <si>
+    <t>mi-1</t>
+  </si>
+  <si>
+    <t>sz4ta2</t>
+  </si>
+  <si>
+    <t>itraconazole</t>
+  </si>
+  <si>
+    <t>tki258</t>
+  </si>
+  <si>
+    <t>wz-1-84</t>
+  </si>
+  <si>
+    <t>fingolimod</t>
+  </si>
+  <si>
+    <t>brd-k19103580</t>
+  </si>
+  <si>
+    <t>cerulenin</t>
+  </si>
+  <si>
+    <t>brd-k45681478</t>
+  </si>
+  <si>
+    <t>vinblastine</t>
+  </si>
+  <si>
+    <t>vincristine</t>
+  </si>
+  <si>
+    <t>unc1215</t>
+  </si>
+  <si>
+    <t>isox</t>
+  </si>
+  <si>
+    <t>jw-480</t>
+  </si>
+  <si>
+    <t>gsk319347a</t>
+  </si>
+  <si>
+    <t>hc-067047</t>
+  </si>
+  <si>
+    <t>apicidin</t>
+  </si>
+  <si>
+    <t>16-beta-bromoandrosterone</t>
+  </si>
+  <si>
+    <t>wp1130</t>
+  </si>
+  <si>
+    <t>gossypol</t>
+  </si>
+  <si>
+    <t>cabozantinib</t>
+  </si>
+  <si>
+    <t>lfm-a13</t>
+  </si>
+  <si>
+    <t>aew541</t>
+  </si>
+  <si>
+    <t>myricetin</t>
+  </si>
+  <si>
+    <t>ciclosporin</t>
+  </si>
+  <si>
+    <t>fti-277</t>
+  </si>
+  <si>
+    <t>ml083</t>
+  </si>
+  <si>
+    <t>cct-018159</t>
+  </si>
+  <si>
+    <t>tgx-221</t>
+  </si>
+  <si>
+    <t>sr1001</t>
+  </si>
+  <si>
+    <t>wz4002</t>
+  </si>
+  <si>
+    <t>cil55</t>
+  </si>
+  <si>
+    <t>talazoparib</t>
+  </si>
+  <si>
+    <t>pl-di</t>
+  </si>
+  <si>
+    <t>gw-405833</t>
+  </si>
+  <si>
+    <t>brd-k02251932</t>
+  </si>
+  <si>
+    <t>skepinone-l</t>
+  </si>
+  <si>
+    <t>brd-k86535717</t>
+  </si>
+  <si>
+    <t>pf-750</t>
+  </si>
+  <si>
+    <t>brd6340</t>
+  </si>
+  <si>
+    <t>staurosporine</t>
+  </si>
+  <si>
+    <t>necrosulfonamide</t>
+  </si>
+  <si>
+    <t>lovastatin</t>
+  </si>
+  <si>
+    <t>shikonin</t>
+  </si>
+  <si>
+    <t>nsc 74859</t>
+  </si>
+  <si>
+    <t>cd-1530</t>
+  </si>
+  <si>
+    <t>gdc-0941</t>
+  </si>
+  <si>
+    <t>brd-k84807411</t>
+  </si>
+  <si>
+    <t>prochlorperazine</t>
+  </si>
+  <si>
+    <t>azd6244</t>
+  </si>
+  <si>
+    <t>brd-a02303741</t>
+  </si>
+  <si>
+    <t>sitagliptin</t>
+  </si>
+  <si>
+    <t>cay10618</t>
+  </si>
+  <si>
+    <t>nvp-adw742</t>
+  </si>
+  <si>
+    <t>brd-k48334597</t>
+  </si>
+  <si>
+    <t>ci-1040</t>
+  </si>
+  <si>
+    <t>srt-1720</t>
+  </si>
+  <si>
+    <t>brd-k34222889</t>
+  </si>
+  <si>
+    <t>brd-a71883111</t>
+  </si>
+  <si>
+    <t>qw-bi-011</t>
+  </si>
+  <si>
+    <t>brd-k17060750</t>
   </si>
   <si>
     <t>yk-4-279</t>
   </si>
   <si>
-    <t>compound 1b</t>
-  </si>
-  <si>
-    <t>xmd11-85h</t>
-  </si>
-  <si>
-    <t>pf-4800567 hydrochloride</t>
-  </si>
-  <si>
-    <t>blebbistatin</t>
-  </si>
-  <si>
-    <t>gant-61</t>
-  </si>
-  <si>
-    <t>pha-665752</t>
-  </si>
-  <si>
-    <t>dacarbazine</t>
-  </si>
-  <si>
-    <t>aa-cocf3</t>
-  </si>
-  <si>
-    <t>mi-2</t>
-  </si>
-  <si>
-    <t>unc0321</t>
-  </si>
-  <si>
-    <t>cgp-082996</t>
-  </si>
-  <si>
-    <t>ku-60019</t>
-  </si>
-  <si>
-    <t>brd-k34099515</t>
-  </si>
-  <si>
-    <t>necrostatin-7</t>
-  </si>
-  <si>
-    <t>darinaparsin</t>
-  </si>
-  <si>
-    <t>brd-k28456706</t>
-  </si>
-  <si>
-    <t>brd-k41597374</t>
-  </si>
-  <si>
-    <t>clofarabine</t>
-  </si>
-  <si>
-    <t>repligen 136</t>
-  </si>
-  <si>
-    <t>cisplatin</t>
-  </si>
-  <si>
-    <t>brd-k27986637</t>
-  </si>
-  <si>
-    <t>brd-k80183349</t>
-  </si>
-  <si>
-    <t>salermide</t>
-  </si>
-  <si>
-    <t>neuronal differentiation inducer iii</t>
-  </si>
-  <si>
-    <t>ac55649</t>
-  </si>
-  <si>
-    <t>sgc0946</t>
-  </si>
-  <si>
-    <t>epothilone b</t>
-  </si>
-  <si>
-    <t>rucaparib</t>
-  </si>
-  <si>
-    <t>staurosporine</t>
-  </si>
-  <si>
-    <t>brd-k14844214</t>
-  </si>
-  <si>
-    <t>fh535</t>
-  </si>
-  <si>
-    <t>ql-viii-58</t>
-  </si>
-  <si>
-    <t>ciclopirox</t>
-  </si>
-  <si>
-    <t>brd-k99006945</t>
-  </si>
-  <si>
-    <t>hg-5-88-01</t>
-  </si>
-  <si>
-    <t>gw-2580</t>
-  </si>
-  <si>
-    <t>brd-k01737880</t>
-  </si>
-  <si>
-    <t>tg-101348</t>
-  </si>
-  <si>
-    <t>brd-k02492147</t>
-  </si>
-  <si>
-    <t>dexamethasone</t>
-  </si>
-  <si>
-    <t>tigecycline</t>
-  </si>
-  <si>
-    <t>gossypol</t>
-  </si>
-  <si>
-    <t>dabrafenib</t>
-  </si>
-  <si>
     <t>pdmp</t>
   </si>
   <si>
-    <t>sch-529074</t>
-  </si>
-  <si>
-    <t>pifithrin-mu</t>
-  </si>
-  <si>
-    <t>16-beta-bromoandrosterone</t>
-  </si>
-  <si>
-    <t>pifithrin-alpha</t>
-  </si>
-  <si>
-    <t>brd-k61166597</t>
-  </si>
-  <si>
-    <t>brd-k27224038</t>
-  </si>
-  <si>
-    <t>a-443654</t>
-  </si>
-  <si>
-    <t>ci-1040</t>
-  </si>
-  <si>
-    <t>a-770041</t>
-  </si>
-  <si>
-    <t>brd-a94377914</t>
-  </si>
-  <si>
-    <t>pf-573228</t>
-  </si>
-  <si>
-    <t>vinblastine</t>
-  </si>
-  <si>
-    <t>fti-277</t>
-  </si>
-  <si>
-    <t>cay10594</t>
-  </si>
-  <si>
-    <t>brd-k19103580</t>
-  </si>
-  <si>
-    <t>cyclopamine</t>
-  </si>
-  <si>
-    <t>nintedanib</t>
-  </si>
-  <si>
-    <t>mi-1</t>
-  </si>
-  <si>
-    <t>brd-k84807411</t>
-  </si>
-  <si>
-    <t>mitomycin</t>
-  </si>
-  <si>
-    <t>vorapaxar</t>
-  </si>
-  <si>
-    <t>lomeguatrib</t>
-  </si>
-  <si>
-    <t>pd 153035</t>
-  </si>
-  <si>
-    <t>brd-a71883111</t>
-  </si>
-  <si>
-    <t>merck60</t>
-  </si>
-  <si>
-    <t>lbh-589</t>
-  </si>
-  <si>
-    <t>tki258</t>
-  </si>
-  <si>
-    <t>unc1215</t>
-  </si>
-  <si>
-    <t>nsc95397</t>
-  </si>
-  <si>
-    <t>pfi-1</t>
-  </si>
-  <si>
-    <t>hbx-41108</t>
-  </si>
-  <si>
-    <t>lestauritinib</t>
-  </si>
-  <si>
-    <t>brd-k96431673</t>
-  </si>
-  <si>
-    <t>gw-405833</t>
-  </si>
-  <si>
-    <t>brd-k66453893</t>
-  </si>
-  <si>
-    <t>ciclosporin</t>
-  </si>
-  <si>
-    <t>sitagliptin</t>
-  </si>
-  <si>
-    <t>phloretin</t>
-  </si>
-  <si>
-    <t>pandacostat</t>
-  </si>
-  <si>
-    <t>brd-a02303741</t>
-  </si>
-  <si>
-    <t>ko-143</t>
-  </si>
-  <si>
-    <t>gw-843682x</t>
-  </si>
-  <si>
-    <t>npc-26</t>
-  </si>
-  <si>
-    <t>brd-k48477130</t>
-  </si>
-  <si>
-    <t>cct007093</t>
-  </si>
-  <si>
-    <t>doramapimod</t>
-  </si>
-  <si>
-    <t>shikonin</t>
-  </si>
-  <si>
-    <t>ly-2157299</t>
-  </si>
-  <si>
-    <t>cr-1-31b</t>
-  </si>
-  <si>
-    <t>brd-k02251932</t>
-  </si>
-  <si>
-    <t>pf-4708671</t>
-  </si>
-  <si>
-    <t>mk-1775</t>
-  </si>
-  <si>
-    <t>lenvatinib</t>
-  </si>
-  <si>
-    <t>zg-10</t>
-  </si>
-  <si>
-    <t>fmk</t>
-  </si>
-  <si>
-    <t>tgx-221</t>
-  </si>
-  <si>
-    <t>hg-5-113-01</t>
-  </si>
-  <si>
-    <t>lfm-a13</t>
-  </si>
-  <si>
-    <t>brd-k17060750</t>
-  </si>
-  <si>
-    <t>brivanib</t>
-  </si>
-  <si>
-    <t>cetuximab</t>
-  </si>
-  <si>
-    <t>azd7545</t>
-  </si>
-  <si>
-    <t>sr-ii-138a</t>
+    <t>bendamustine</t>
   </si>
   <si>
     <t>brd-k71781559</t>
   </si>
   <si>
-    <t>wz-1-84</t>
-  </si>
-  <si>
-    <t>3-cl-ahpc</t>
-  </si>
-  <si>
-    <t>brd8899</t>
-  </si>
-  <si>
-    <t>fqi-2</t>
-  </si>
-  <si>
-    <t>agk-2</t>
-  </si>
-  <si>
-    <t>brd6340</t>
-  </si>
-  <si>
-    <t>cct-018159</t>
-  </si>
-  <si>
-    <t>hg6-64-1</t>
-  </si>
-  <si>
-    <t>rg-108</t>
-  </si>
-  <si>
-    <t>ci-976</t>
-  </si>
-  <si>
-    <t>ro-3306</t>
-  </si>
-  <si>
-    <t>lovastatin</t>
-  </si>
-  <si>
-    <t>palbociclib</t>
-  </si>
-  <si>
-    <t>brd-k86535717</t>
-  </si>
-  <si>
-    <t>brd-k48334597</t>
-  </si>
-  <si>
-    <t>obatoclax mesylate</t>
-  </si>
-  <si>
-    <t>chm-1</t>
-  </si>
-  <si>
-    <t>bendamustine</t>
-  </si>
-  <si>
-    <t>cd-437</t>
-  </si>
-  <si>
-    <t>sr1001</t>
-  </si>
-  <si>
-    <t>pf-750</t>
-  </si>
-  <si>
-    <t>brd1812</t>
-  </si>
-  <si>
-    <t>gw441756</t>
-  </si>
-  <si>
-    <t>talazoparib</t>
-  </si>
-  <si>
-    <t>cabozantinib</t>
-  </si>
-  <si>
-    <t>xmd8-85</t>
-  </si>
-  <si>
-    <t>crizotinib</t>
-  </si>
-  <si>
-    <t>cil55</t>
-  </si>
-  <si>
-    <t>rapamycin</t>
-  </si>
-  <si>
-    <t>mln2238</t>
-  </si>
-  <si>
-    <t>sb-225002</t>
-  </si>
-  <si>
-    <t>parbendazole</t>
-  </si>
-  <si>
-    <t>dasatinib</t>
-  </si>
-  <si>
-    <t>brd-k30748066</t>
-  </si>
-  <si>
-    <t>qw-bi-011</t>
-  </si>
-  <si>
-    <t>tamoxifen</t>
-  </si>
-  <si>
-    <t>ml083</t>
-  </si>
-  <si>
-    <t>hc-067047</t>
-  </si>
-  <si>
-    <t>fingolimod</t>
-  </si>
-  <si>
-    <t>isox</t>
-  </si>
-  <si>
-    <t>skepinone-l</t>
-  </si>
-  <si>
-    <t>sch-79797</t>
-  </si>
-  <si>
-    <t>sirolimus</t>
-  </si>
-  <si>
-    <t>yk 4-279</t>
-  </si>
-  <si>
-    <t>alvocidib</t>
+    <t>indisulam</t>
   </si>
   <si>
     <t>cyanoquinoline 11</t>
   </si>
   <si>
-    <t>brd-k70511574</t>
-  </si>
-  <si>
-    <t>pl-di</t>
-  </si>
-  <si>
-    <t>wz4002</t>
-  </si>
-  <si>
-    <t>pd318088</t>
-  </si>
-  <si>
-    <t>wp1130</t>
-  </si>
-  <si>
-    <t>gsk319347a</t>
-  </si>
-  <si>
-    <t>compound 7d-cis</t>
-  </si>
-  <si>
-    <t>necrosulfonamide</t>
-  </si>
-  <si>
-    <t>prochlorperazine</t>
-  </si>
-  <si>
-    <t>nvp-adw742</t>
-  </si>
-  <si>
-    <t>pelitinib</t>
-  </si>
-  <si>
-    <t>compound 23 citrate</t>
-  </si>
-  <si>
-    <t>bibr-1532</t>
-  </si>
-  <si>
-    <t>mln2480</t>
-  </si>
-  <si>
-    <t>refametinib</t>
-  </si>
-  <si>
-    <t>myricetin</t>
-  </si>
-  <si>
-    <t>brd-k45681478</t>
-  </si>
-  <si>
-    <t>brd-k11533227</t>
-  </si>
-  <si>
-    <t>brd-k30019337</t>
-  </si>
-  <si>
-    <t>itraconazole</t>
-  </si>
-  <si>
-    <t>cd-1530</t>
-  </si>
-  <si>
-    <t>apicidin</t>
-  </si>
-  <si>
-    <t>pf-184</t>
+    <t>am-580</t>
   </si>
   <si>
     <t>mk-2206</t>
   </si>
   <si>
-    <t>vnlg/124</t>
-  </si>
-  <si>
-    <t>tak-715</t>
-  </si>
-  <si>
-    <t>qs-11</t>
-  </si>
-  <si>
-    <t>aew541</t>
-  </si>
-  <si>
-    <t>cil56</t>
-  </si>
-  <si>
-    <t>nsc 74859</t>
-  </si>
-  <si>
-    <t>sz4ta2</t>
-  </si>
-  <si>
-    <t>isoevodiamine</t>
-  </si>
-  <si>
-    <t>gsk461364</t>
-  </si>
-  <si>
-    <t>brd-k42260513</t>
-  </si>
-  <si>
-    <t>cerulenin</t>
-  </si>
-  <si>
-    <t>ml334 diastereomer</t>
-  </si>
-  <si>
-    <t>sunitinib</t>
-  </si>
-  <si>
-    <t>brd-k41334119</t>
-  </si>
-  <si>
-    <t>vincristine</t>
-  </si>
-  <si>
-    <t>kx2-391</t>
-  </si>
-  <si>
-    <t>srt-1720</t>
-  </si>
-  <si>
-    <t>tipifarnib-p2</t>
-  </si>
-  <si>
     <t>myriocin</t>
   </si>
   <si>
-    <t>hli 373</t>
-  </si>
-  <si>
-    <t>triazolothiadiazine</t>
-  </si>
-  <si>
-    <t>brd-k51490254</t>
-  </si>
-  <si>
-    <t>erastin</t>
-  </si>
-  <si>
-    <t>jw-480</t>
-  </si>
-  <si>
-    <t>brd-k34222889</t>
-  </si>
-  <si>
-    <t>sb-525334</t>
-  </si>
-  <si>
-    <t>nutlin-3</t>
-  </si>
-  <si>
-    <t>avicin d</t>
-  </si>
-  <si>
-    <t>pd173074</t>
-  </si>
-  <si>
-    <t>am-580</t>
-  </si>
-  <si>
-    <t>jw-7-52-1</t>
-  </si>
-  <si>
-    <t>cay10618</t>
-  </si>
-  <si>
-    <t>azd6244</t>
-  </si>
-  <si>
-    <t>gdc-0941</t>
-  </si>
-  <si>
-    <t>necrostatin-1</t>
-  </si>
-  <si>
-    <t>indisulam</t>
-  </si>
-  <si>
     <t>BCR-Abl, Src, Lyn and Hck inhibitor</t>
   </si>
   <si>
+    <t>Not Clinically Relevant</t>
+  </si>
+  <si>
+    <t>EGFR inhibitor (Iressa)</t>
+  </si>
+  <si>
+    <t>VEGFR, EGFR and RET inhibitor</t>
+  </si>
+  <si>
+    <t>EGFR inhibitor (Tarceva)</t>
+  </si>
+  <si>
+    <t>Induces DNA strand breaks, inhibits incorporation of thymidine into DNA strands.</t>
+  </si>
+  <si>
     <t>KIT, FGFR, PDGFR and VEGFR inhibitor</t>
   </si>
   <si>
-    <t>EGFR inhibitor (Iressa)</t>
-  </si>
-  <si>
     <t>Nucleoside analog,incorporation into DNA creates an irreparable error that leads to inhibition of further DNA synthesis</t>
   </si>
   <si>
-    <t>Not Clinically Relevant</t>
-  </si>
-  <si>
-    <t>EGFR inhibitor (Tarceva)</t>
+    <t>diterpenoid epoxide from thunder god vine, may act on the XBP helicase that is a part of the TFIIH transcription factor complex</t>
+  </si>
+  <si>
+    <t>PARP Inhibitor</t>
+  </si>
+  <si>
+    <t>Her2 and EGFR inhibitor</t>
   </si>
   <si>
     <t>HSP90 inhibitor</t>
   </si>
   <si>
+    <t>Viagra, used to treat erectile dysfunction and pulmonary arterial hypertension</t>
+  </si>
+  <si>
     <t>JAK1 and JAK2 inhibitor</t>
   </si>
   <si>
-    <t>Viagra, used to treat erectile dysfunction and pulmonary arterial hypertension</t>
-  </si>
-  <si>
-    <t>Induces DNA strand breaks, inhibits incorporation of thymidine into DNA strands.</t>
+    <t>antimetabolite</t>
+  </si>
+  <si>
+    <t>HER2/EGFR inhibitor</t>
+  </si>
+  <si>
+    <t>Topo II inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casein kinase 2 inhibitor </t>
+  </si>
+  <si>
+    <t>Topo II inhibitor, DNA intercalator</t>
   </si>
   <si>
     <t>EGFR and ErbB2 inhibitor</t>
   </si>
   <si>
-    <t>VEGFR, EGFR and RET inhibitor</t>
-  </si>
-  <si>
-    <t>HER2/EGFR inhibitor</t>
-  </si>
-  <si>
-    <t>Her2 and EGFR inhibitor</t>
+    <t>organic arsenic compound composed of dimethylated arsenic linked to glutathione</t>
+  </si>
+  <si>
+    <t>MEK1 inhibitor</t>
+  </si>
+  <si>
+    <t>Nucleoside analog, inhibitor of DNA methylation and DNA synthesis (Dacogen)</t>
+  </si>
+  <si>
+    <t>ER antagonist prodrug; converted to 4-OHT and endoxifen in the liver; competes with estrogen for ER binding, inhibits transcription of estrogen target genes</t>
+  </si>
+  <si>
+    <t>alkylating agent, nitrogen mustard family, works by disrupting the duplication of DNA and the creation of RNA (Cytoxan)</t>
+  </si>
+  <si>
+    <t>multitargeted tyrosine kinase inhibitor, esp VEGFR and FGFR</t>
+  </si>
+  <si>
+    <t>CDK4/6 inhibitor</t>
+  </si>
+  <si>
+    <t>purine nucleoside antimetabolite</t>
+  </si>
+  <si>
+    <t>Plk1 inhibitor, less active against Plk2 and Plk3.</t>
   </si>
   <si>
     <t>antiandrogen, used to treat prostate cancer</t>
   </si>
   <si>
-    <t>Topo II inhibitor</t>
+    <t>PI3K/mTOR inhibitor</t>
+  </si>
+  <si>
+    <t>kinase inhibitor, with selectivity against Src and Bcr-Abl</t>
+  </si>
+  <si>
+    <t>Bcl2 inhibitor</t>
+  </si>
+  <si>
+    <t>PARP inhibitor, inhibits DNA repair</t>
+  </si>
+  <si>
+    <t>MEK inhibitor (MEK1 and MEK2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI3Kβ inhibitor, less active against PI3Kδ, PI3Kα and PI3Kγ </t>
+  </si>
+  <si>
+    <t>guanine analog, binds the DNA repair enzyme O(6)-alkylguanine DNA alkyltransferase (AGT) resulting in inhibition of AGT-mediated DNA repair</t>
+  </si>
+  <si>
+    <t>Wee1 kinase inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan-ErbB inhibitor for EGFR and ErbB2,  no activity to PDGFR, FGFR, InsR, PKC, or CDK1/2/4. </t>
   </si>
   <si>
     <t>(MLN4924), inhibitor of NEDD8-activating enzyme (NAE)</t>
   </si>
   <si>
-    <t>Bcl2 inhibitor</t>
-  </si>
-  <si>
-    <t>kinase inhibitor, with selectivity against Src and Bcr-Abl</t>
-  </si>
-  <si>
-    <t>PARP Inhibitor</t>
-  </si>
-  <si>
-    <t>diterpenoid epoxide from thunder god vine, may act on the XBP helicase that is a part of the TFIIH transcription factor complex</t>
-  </si>
-  <si>
-    <t>antimetabolite</t>
+    <t>alkylating agent, Dacarbazine works by methylating guanine at the O-6 and N-7 positions</t>
+  </si>
+  <si>
+    <t>tyrosine-kinase inhibitor, targeting VEGFR, FGFR and PDGFR</t>
+  </si>
+  <si>
+    <t>(R4060) inhibitor of IgE and IgG-mediated activation of Fc receptor signaling. Primary target is Syk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thrombin receptor (protease-activated receptor, PAR-1) antagonist based on the natural product himbacine</t>
+  </si>
+  <si>
+    <t>antibiotic used to treat a number of bacterial infections</t>
   </si>
   <si>
     <t>derivative of thalidomide, which interacts with the ubiquitin E3 ligase cereblon, targeting this enzyme to degrade the Ikaros transcription factors IKZF1 and IKZF3. Used for multiple myeloma</t>
   </si>
   <si>
-    <t>MEK1 inhibitor</t>
-  </si>
-  <si>
-    <t>PI3K/mTOR inhibitor</t>
-  </si>
-  <si>
-    <t>alkylating agent, nitrogen mustard family, works by disrupting the duplication of DNA and the creation of RNA (Cytoxan)</t>
-  </si>
-  <si>
-    <t>(R4060) inhibitor of IgE and IgG-mediated activation of Fc receptor signaling. Primary target is Syk</t>
+    <t>TAK-580, pan-Raf kinase inhibitor</t>
+  </si>
+  <si>
+    <t>rapamycin, mTOR inhibitor</t>
+  </si>
+  <si>
+    <t>JAK2 inhibitor</t>
+  </si>
+  <si>
+    <t>synthetic corticosteroid, used to reduce inflammation</t>
+  </si>
+  <si>
+    <t>Flavopiridol, CDK inhibitor, works against CDK1, 2, 4, 6 and 9</t>
+  </si>
+  <si>
+    <t>inhibitor of c-Met and VEGFR1/2/3, as well as Ron and Tie2</t>
+  </si>
+  <si>
+    <t>ALK, ROS1 and MET inhibitor</t>
+  </si>
+  <si>
+    <t>VEGFR2, PDGFRb and c-kit inhibitor; also inhibits FLT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhibitor of MGMT, a DNA repair protein that confers resistance to alkylating agents such as Temozolomide, DTIC, Carmustine, etc. </t>
+  </si>
+  <si>
+    <t>HDAC inhibitor</t>
+  </si>
+  <si>
+    <t>antifungal agent for topical dermatologic treatment of superficial mycoses</t>
+  </si>
+  <si>
+    <t>Braf (V600E) inhibitor</t>
+  </si>
+  <si>
+    <t>BCR-Abl, Src, c-Kit inhibitor</t>
+  </si>
+  <si>
+    <t>DNA Alkylator, works by cross-linking DNA and inhibiting DNA synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ixazomib, Proteasome inhibitor, inhibits the chymotrypsin-like proteolytic (β5) site of the 20S proteasome </t>
+  </si>
+  <si>
+    <t>Src inhibitor (peptidomimetic) that targets the peptide substrate site of Src</t>
   </si>
   <si>
     <t>SIRT1 inhibitor</t>
   </si>
   <si>
-    <t>Topo II inhibitor, DNA intercalator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casein kinase 2 inhibitor </t>
-  </si>
-  <si>
-    <t>inhibitor of c-Met and VEGFR1/2/3, as well as Ron and Tie2</t>
-  </si>
-  <si>
-    <t>MEK inhibitor (MEK1 and MEK2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pan-ErbB inhibitor for EGFR and ErbB2,  no activity to PDGFR, FGFR, InsR, PKC, or CDK1/2/4. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI3Kβ inhibitor, less active against PI3Kδ, PI3Kα and PI3Kγ </t>
-  </si>
-  <si>
-    <t>guanine analog, binds the DNA repair enzyme O(6)-alkylguanine DNA alkyltransferase (AGT) resulting in inhibition of AGT-mediated DNA repair</t>
-  </si>
-  <si>
-    <t>Nucleoside analog, inhibitor of DNA methylation and DNA synthesis (Dacogen)</t>
-  </si>
-  <si>
-    <t>alkylating agent, Dacarbazine works by methylating guanine at the O-6 and N-7 positions</t>
-  </si>
-  <si>
-    <t>organic arsenic compound composed of dimethylated arsenic linked to glutathione</t>
-  </si>
-  <si>
-    <t>purine nucleoside antimetabolite</t>
-  </si>
-  <si>
-    <t>PARP inhibitor, inhibits DNA repair</t>
-  </si>
-  <si>
-    <t>antifungal agent for topical dermatologic treatment of superficial mycoses</t>
-  </si>
-  <si>
-    <t>JAK2 inhibitor</t>
-  </si>
-  <si>
-    <t>synthetic corticosteroid, used to reduce inflammation</t>
-  </si>
-  <si>
-    <t>antibiotic used to treat a number of bacterial infections</t>
+    <t>VEGFR inhibitor (VEGFR1, VEGFR2 and VEGFR3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mdm2 antagonist, stabilizes p53 </t>
+  </si>
+  <si>
+    <t>Anti-fungal, hedgehog antagonist</t>
+  </si>
+  <si>
+    <t>sphingosine-1-phosphate receptor modulator, sequesters lymphocytes in lymph nodes, mostly used for treating multiple sclerosis</t>
+  </si>
+  <si>
+    <t>disrupts microtubule dynamics; vinca alkaloid, chemical analogue of vincristine</t>
+  </si>
+  <si>
+    <t>binds tubulin, disrupts microtubule dynamics</t>
   </si>
   <si>
     <t>Natural product, may function to inhibit Bcl2 family members</t>
   </si>
   <si>
-    <t>Braf (V600E) inhibitor</t>
-  </si>
-  <si>
-    <t>disrupts microtubule dynamics; vinca alkaloid, chemical analogue of vincristine</t>
-  </si>
-  <si>
-    <t>tyrosine-kinase inhibitor, targeting VEGFR, FGFR and PDGFR</t>
-  </si>
-  <si>
-    <t>DNA Alkylator, works by cross-linking DNA and inhibiting DNA synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thrombin receptor (protease-activated receptor, PAR-1) antagonist based on the natural product himbacine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhibitor of MGMT, a DNA repair protein that confers resistance to alkylating agents such as Temozolomide, DTIC, Carmustine, etc. </t>
-  </si>
-  <si>
-    <t>HDAC inhibitor</t>
+    <t>MET, AXL, VEGFR and RET inhibitor</t>
+  </si>
+  <si>
+    <t>HMG-CoA reductase inhibitor,</t>
+  </si>
+  <si>
+    <t>Pictilisib, potent inhibitor of PI3Kα/δ, with modest selectivity against p110β (11-fold) and p110γ</t>
+  </si>
+  <si>
+    <t>dopamine (D2) receptor antagonist, used for treatment of nausea and vertigo.</t>
   </si>
   <si>
     <t>used for Treating type 2 diabetes, works by increasing the amount of insulin released by your body</t>
   </si>
   <si>
-    <t>Wee1 kinase inhibitor</t>
-  </si>
-  <si>
-    <t>VEGFR inhibitor (VEGFR1, VEGFR2 and VEGFR3)</t>
-  </si>
-  <si>
-    <t>multitargeted tyrosine kinase inhibitor, esp VEGFR and FGFR</t>
-  </si>
-  <si>
-    <t>HMG-CoA reductase inhibitor,</t>
-  </si>
-  <si>
-    <t>CDK4/6 inhibitor</t>
-  </si>
-  <si>
     <t>alkylating agent</t>
   </si>
   <si>
-    <t>MET, AXL, VEGFR and RET inhibitor</t>
-  </si>
-  <si>
-    <t>ALK, ROS1 and MET inhibitor</t>
-  </si>
-  <si>
-    <t>rapamycin, mTOR inhibitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ixazomib, Proteasome inhibitor, inhibits the chymotrypsin-like proteolytic (β5) site of the 20S proteasome </t>
-  </si>
-  <si>
-    <t>BCR-Abl, Src, c-Kit inhibitor</t>
-  </si>
-  <si>
-    <t>ER antagonist prodrug; converted to 4-OHT and endoxifen in the liver; competes with estrogen for ER binding, inhibits transcription of estrogen target genes</t>
-  </si>
-  <si>
-    <t>sphingosine-1-phosphate receptor modulator, sequesters lymphocytes in lymph nodes, mostly used for treating multiple sclerosis</t>
-  </si>
-  <si>
-    <t>Flavopiridol, CDK inhibitor, works against CDK1, 2, 4, 6 and 9</t>
-  </si>
-  <si>
-    <t>dopamine (D2) receptor antagonist, used for treatment of nausea and vertigo.</t>
-  </si>
-  <si>
-    <t>TAK-580, pan-Raf kinase inhibitor</t>
-  </si>
-  <si>
-    <t>Anti-fungal, hedgehog antagonist</t>
+    <t>carbonic anhydrase inibitor and  CDK inhibitor, targets G1 by depleting cyclin E. inducing p53 and p21, and inhibiting CDK2</t>
   </si>
   <si>
     <t>Akt1/2/3 inhibitor</t>
-  </si>
-  <si>
-    <t>Plk1 inhibitor, less active against Plk2 and Plk3.</t>
-  </si>
-  <si>
-    <t>VEGFR2, PDGFRb and c-kit inhibitor; also inhibits FLT3</t>
-  </si>
-  <si>
-    <t>binds tubulin, disrupts microtubule dynamics</t>
-  </si>
-  <si>
-    <t>Src inhibitor (peptidomimetic) that targets the peptide substrate site of Src</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mdm2 antagonist, stabilizes p53 </t>
-  </si>
-  <si>
-    <t>Pictilisib, potent inhibitor of PI3Kα/δ, with modest selectivity against p110β (11-fold) and p110γ</t>
-  </si>
-  <si>
-    <t>carbonic anhydrase inibitor and  CDK inhibitor, targets G1 by depleting cyclin E. inducing p53 and p21, and inhibiting CDK2</t>
   </si>
 </sst>
 </file>
@@ -1652,14 +1652,17 @@
       <c r="B2" t="s">
         <v>338</v>
       </c>
+      <c r="C2">
+        <v>0.086056493773188</v>
+      </c>
       <c r="D2">
-        <v>0.0004080357142857143</v>
+        <v>0.0001785714285714286</v>
       </c>
       <c r="E2">
-        <v>0.2742</v>
+        <v>0.12</v>
       </c>
       <c r="F2">
-        <v>0.7118805955884034</v>
+        <v>0.7002022268671692</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1669,14 +1672,17 @@
       <c r="B3" t="s">
         <v>339</v>
       </c>
+      <c r="C3">
+        <v>0.1240230738484054</v>
+      </c>
       <c r="D3">
-        <v>0.003733482142857143</v>
+        <v>0.002752976190476191</v>
       </c>
       <c r="E3">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F3">
-        <v>0.5828684577707671</v>
+        <v>0.5050933042980331</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1686,14 +1692,17 @@
       <c r="B4" t="s">
         <v>340</v>
       </c>
+      <c r="C4">
+        <v>0.09514396783436713</v>
+      </c>
       <c r="D4">
-        <v>0.004084375</v>
+        <v>0.00568452380952381</v>
       </c>
       <c r="E4">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F4">
-        <v>0.5781846396453201</v>
+        <v>0.4927019067080528</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1701,16 +1710,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>339</v>
+      </c>
+      <c r="C5">
+        <v>0.04189640412636373</v>
       </c>
       <c r="D5">
-        <v>0.007765029761904763</v>
+        <v>0.009523809523809523</v>
       </c>
       <c r="E5">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F5">
-        <v>0.5458752287322314</v>
+        <v>0.4567303435964479</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1718,16 +1730,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="C6">
+        <v>0.04363811456816661</v>
       </c>
       <c r="D6">
-        <v>0.008266517857142858</v>
+        <v>0.0106547619047619</v>
       </c>
       <c r="E6">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F6">
-        <v>0.5425066719399523</v>
+        <v>0.4345672635068791</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1735,16 +1750,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="C7">
+        <v>0.04539588263767622</v>
       </c>
       <c r="D7">
-        <v>0.00932842261904762</v>
+        <v>0.01186011904761905</v>
       </c>
       <c r="E7">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F7">
-        <v>0.5351403601901592</v>
+        <v>0.4231954296555657</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1752,16 +1770,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="C8">
+        <v>0.03273485129807918</v>
       </c>
       <c r="D8">
-        <v>0.01144032738095238</v>
+        <v>0.01261904761904762</v>
       </c>
       <c r="E8">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F8">
-        <v>0.5210618446999266</v>
+        <v>0.4183589294038781</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1769,16 +1790,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="C9">
+        <v>0.07591366013218361</v>
       </c>
       <c r="D9">
-        <v>0.01295372023809524</v>
+        <v>0.01452380952380953</v>
       </c>
       <c r="E9">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F9">
-        <v>0.5120442083701683</v>
+        <v>0.402678258582165</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1786,16 +1810,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="C10">
+        <v>0.05495122407164681</v>
       </c>
       <c r="D10">
-        <v>0.013021875</v>
+        <v>0.01674107142857143</v>
       </c>
       <c r="E10">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F10">
-        <v>0.5116568268711802</v>
+        <v>0.3904608919181873</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1803,16 +1830,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="C11">
+        <v>0.06698354266808521</v>
       </c>
       <c r="D11">
-        <v>0.01440342261904762</v>
+        <v>0.01952380952380953</v>
       </c>
       <c r="E11">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F11">
-        <v>0.502775584653996</v>
+        <v>0.3823534831304669</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1820,16 +1850,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D12">
-        <v>0.016290625</v>
+        <v>0.02102678571428572</v>
       </c>
       <c r="E12">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F12">
-        <v>0.4917563179175364</v>
+        <v>0.375085724492903</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1837,16 +1867,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D13">
-        <v>0.0176375</v>
+        <v>0.02278273809523809</v>
       </c>
       <c r="E13">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F13">
-        <v>0.4845448489747342</v>
+        <v>0.3676821997521914</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1854,16 +1884,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D14">
-        <v>0.01841815476190476</v>
+        <v>0.0234375</v>
       </c>
       <c r="E14">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F14">
-        <v>0.4801763747479516</v>
+        <v>0.3660698779386142</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1871,16 +1901,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D15">
-        <v>0.02156889880952381</v>
+        <v>0.0234375</v>
       </c>
       <c r="E15">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F15">
-        <v>0.4636991239818852</v>
+        <v>0.366058694732695</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1891,13 +1921,13 @@
         <v>347</v>
       </c>
       <c r="D16">
-        <v>0.02248407738095239</v>
+        <v>0.02736607142857143</v>
       </c>
       <c r="E16">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F16">
-        <v>0.4590022686974296</v>
+        <v>0.3575291426597409</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1905,16 +1935,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D17">
-        <v>0.02299255952380953</v>
+        <v>0.03017857142857143</v>
       </c>
       <c r="E17">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F17">
-        <v>0.4561617205496006</v>
+        <v>0.3530786903246085</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1922,16 +1952,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D18">
-        <v>0.02521443452380952</v>
+        <v>0.03020833333333333</v>
       </c>
       <c r="E18">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F18">
-        <v>0.4451238009084633</v>
+        <v>0.3530430201114829</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1939,16 +1969,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D19">
-        <v>0.02543497023809524</v>
+        <v>0.03095238095238096</v>
       </c>
       <c r="E19">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F19">
-        <v>0.4442147497883592</v>
+        <v>0.3515402992197109</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1959,13 +1989,13 @@
         <v>349</v>
       </c>
       <c r="D20">
-        <v>0.02574092261904761</v>
+        <v>0.031875</v>
       </c>
       <c r="E20">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F20">
-        <v>0.4427689186440628</v>
+        <v>0.3497289491736678</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1973,16 +2003,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D21">
-        <v>0.02583854166666666</v>
+        <v>0.03294642857142857</v>
       </c>
       <c r="E21">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F21">
-        <v>0.4423029104520767</v>
+        <v>0.346608125278629</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1990,16 +2020,16 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D22">
-        <v>0.0265797619047619</v>
+        <v>0.0334375</v>
       </c>
       <c r="E22">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F22">
-        <v>0.4386648425920323</v>
+        <v>0.3452828388891774</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2007,16 +2037,16 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D23">
-        <v>0.02741889880952381</v>
+        <v>0.03461309523809523</v>
       </c>
       <c r="E23">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F23">
-        <v>0.4350436764990515</v>
+        <v>0.3417797867395614</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2024,16 +2054,16 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D24">
-        <v>0.03334032738095238</v>
+        <v>0.03462797619047619</v>
       </c>
       <c r="E24">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F24">
-        <v>0.4132562735680746</v>
+        <v>0.3417145857508255</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2041,16 +2071,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D25">
-        <v>0.03358169642857143</v>
+        <v>0.03523809523809524</v>
       </c>
       <c r="E25">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F25">
-        <v>0.4125777128962812</v>
+        <v>0.3401481562901554</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2058,16 +2088,16 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D26">
-        <v>0.03529821428571429</v>
+        <v>0.03720238095238095</v>
       </c>
       <c r="E26">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F26">
-        <v>0.4067979760012888</v>
+        <v>0.3365843776961595</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2075,16 +2105,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D27">
-        <v>0.03823630952380953</v>
+        <v>0.03727678571428571</v>
       </c>
       <c r="E27">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F27">
-        <v>0.3968689640761993</v>
+        <v>0.3362435484886147</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2092,16 +2122,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D28">
-        <v>0.03877410714285714</v>
+        <v>0.04144345238095238</v>
       </c>
       <c r="E28">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F28">
-        <v>0.3951900068291566</v>
+        <v>0.3303667609059423</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2109,16 +2139,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D29">
-        <v>0.03903690476190477</v>
+        <v>0.04255952380952381</v>
       </c>
       <c r="E29">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F29">
-        <v>0.3944474479420442</v>
+        <v>0.3285855423068227</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2126,16 +2156,16 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D30">
-        <v>0.04186592261904762</v>
+        <v>0.04334821428571429</v>
       </c>
       <c r="E30">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F30">
-        <v>0.3863723787825143</v>
+        <v>0.3276256538890499</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2143,16 +2173,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D31">
-        <v>0.042475</v>
+        <v>0.04693452380952381</v>
       </c>
       <c r="E31">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F31">
-        <v>0.3847569644904469</v>
+        <v>0.3225200466119485</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2160,16 +2190,16 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D32">
-        <v>0.04533229166666667</v>
+        <v>0.04739583333333333</v>
       </c>
       <c r="E32">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F32">
-        <v>0.3775113065673663</v>
+        <v>0.3220526602609696</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2177,16 +2207,16 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D33">
-        <v>0.04591190476190477</v>
+        <v>0.04796130952380952</v>
       </c>
       <c r="E33">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F33">
-        <v>0.3759672232509396</v>
+        <v>0.3212793015394724</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2194,16 +2224,16 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D34">
-        <v>0.04609449404761905</v>
+        <v>0.05025297619047619</v>
       </c>
       <c r="E34">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F34">
-        <v>0.3755130681849794</v>
+        <v>0.3180240430793278</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2211,16 +2241,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D35">
-        <v>0.04631488095238096</v>
+        <v>0.05052083333333333</v>
       </c>
       <c r="E35">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F35">
-        <v>0.3748822011461975</v>
+        <v>0.3177376830022885</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2228,16 +2258,16 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D36">
-        <v>0.04713348214285714</v>
+        <v>0.05700892857142858</v>
       </c>
       <c r="E36">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F36">
-        <v>0.3728092706298721</v>
+        <v>0.308845852811282</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2245,16 +2275,16 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D37">
-        <v>0.04724940476190476</v>
+        <v>0.05711309523809524</v>
       </c>
       <c r="E37">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F37">
-        <v>0.3724830338267303</v>
+        <v>0.3087339028164954</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2262,16 +2292,16 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D38">
-        <v>0.04781607142857143</v>
+        <v>0.05767857142857144</v>
       </c>
       <c r="E38">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F38">
-        <v>0.3712804680249084</v>
+        <v>0.3075293916365806</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2279,16 +2309,16 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="D39">
-        <v>0.0486578869047619</v>
+        <v>0.05788690476190476</v>
       </c>
       <c r="E39">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F39">
-        <v>0.3690536788031233</v>
+        <v>0.307336042477413</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2296,16 +2326,16 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D40">
-        <v>0.04869479166666667</v>
+        <v>0.05879464285714286</v>
       </c>
       <c r="E40">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F40">
-        <v>0.3689958142716222</v>
+        <v>0.3061151607450379</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2313,16 +2343,16 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D41">
-        <v>0.04921949404761905</v>
+        <v>0.05964285714285714</v>
       </c>
       <c r="E41">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F41">
-        <v>0.3677147874691089</v>
+        <v>0.3051054936015581</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2330,16 +2360,16 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D42">
-        <v>0.05126026785714285</v>
+        <v>0.06038690476190476</v>
       </c>
       <c r="E42">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F42">
-        <v>0.3628907300738193</v>
+        <v>0.3042615909373013</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2347,16 +2377,16 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D43">
-        <v>0.05147559523809524</v>
+        <v>0.06074404761904763</v>
       </c>
       <c r="E43">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F43">
-        <v>0.3623873601421731</v>
+        <v>0.3037528645293555</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2364,16 +2394,16 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D44">
-        <v>0.05187098214285715</v>
+        <v>0.06108630952380952</v>
       </c>
       <c r="E44">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F44">
-        <v>0.3616149751325986</v>
+        <v>0.3033424239193672</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2381,16 +2411,16 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D45">
-        <v>0.05224107142857143</v>
+        <v>0.06163690476190476</v>
       </c>
       <c r="E45">
-        <v>0.7978636363636363</v>
+        <v>0.843625</v>
       </c>
       <c r="F45">
-        <v>0.3608419976891222</v>
+        <v>0.3027349354223979</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2398,16 +2428,16 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D46">
-        <v>0.05439032738095238</v>
+        <v>0.06188988095238095</v>
       </c>
       <c r="E46">
-        <v>0.8093195652173912</v>
+        <v>0.843625</v>
       </c>
       <c r="F46">
-        <v>0.3562847538011852</v>
+        <v>0.3023801263580621</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2415,16 +2445,16 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D47">
-        <v>0.05539985119047619</v>
+        <v>0.06196428571428572</v>
       </c>
       <c r="E47">
-        <v>0.8093195652173912</v>
+        <v>0.843625</v>
       </c>
       <c r="F47">
-        <v>0.3539877395634631</v>
+        <v>0.302173797298275</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2432,16 +2462,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D48">
-        <v>0.0574452380952381</v>
+        <v>0.06226190476190476</v>
       </c>
       <c r="E48">
-        <v>0.8213446808510638</v>
+        <v>0.843625</v>
       </c>
       <c r="F48">
-        <v>0.3502822578021445</v>
+        <v>0.3017554575943567</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2449,16 +2479,16 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D49">
-        <v>0.06055491071428572</v>
+        <v>0.06263392857142858</v>
       </c>
       <c r="E49">
-        <v>0.8477687500000001</v>
+        <v>0.843625</v>
       </c>
       <c r="F49">
-        <v>0.3448197053783367</v>
+        <v>0.3010887232801239</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2466,16 +2496,16 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D50">
-        <v>0.06838526785714286</v>
+        <v>0.06455357142857142</v>
       </c>
       <c r="E50">
-        <v>0.9207615384615384</v>
+        <v>0.843625</v>
       </c>
       <c r="F50">
-        <v>0.3317831717561218</v>
+        <v>0.2986713288027388</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2483,16 +2513,16 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D51">
-        <v>0.06956651785714285</v>
+        <v>0.06614583333333332</v>
       </c>
       <c r="E51">
-        <v>0.9207615384615384</v>
+        <v>0.843625</v>
       </c>
       <c r="F51">
-        <v>0.3300013521857488</v>
+        <v>0.2965809829517373</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2500,16 +2530,16 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D52">
-        <v>0.06993511904761905</v>
+        <v>0.06724702380952381</v>
       </c>
       <c r="E52">
-        <v>0.9207615384615384</v>
+        <v>0.843625</v>
       </c>
       <c r="F52">
-        <v>0.3294686763830471</v>
+        <v>0.2951503889236615</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2517,16 +2547,16 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D53">
-        <v>0.07124940476190476</v>
+        <v>0.06761904761904762</v>
       </c>
       <c r="E53">
-        <v>0.9207615384615384</v>
+        <v>0.843625</v>
       </c>
       <c r="F53">
-        <v>0.3273254363810218</v>
+        <v>0.2945461397914551</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2534,16 +2564,16 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D54">
-        <v>0.07332782738095238</v>
+        <v>0.06761904761904762</v>
       </c>
       <c r="E54">
-        <v>0.9297415094339624</v>
+        <v>0.843625</v>
       </c>
       <c r="F54">
-        <v>0.3236504255475974</v>
+        <v>0.2945200827504456</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2551,16 +2581,16 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D55">
-        <v>0.08109419642857142</v>
+        <v>0.06941964285714286</v>
       </c>
       <c r="E55">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F55">
-        <v>0.3118761124841078</v>
+        <v>0.2925505268042287</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2568,16 +2598,16 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D56">
-        <v>0.08161517857142858</v>
+        <v>0.07077380952380953</v>
       </c>
       <c r="E56">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F56">
-        <v>0.3109586198241274</v>
+        <v>0.2913132215645143</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2585,16 +2615,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D57">
-        <v>0.08471517857142857</v>
+        <v>0.07148809523809524</v>
       </c>
       <c r="E57">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F57">
-        <v>0.3064944307815167</v>
+        <v>0.2905936616089734</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2602,16 +2632,16 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D58">
-        <v>0.08570446428571428</v>
+        <v>0.07681547619047617</v>
       </c>
       <c r="E58">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F58">
-        <v>0.3050888850170662</v>
+        <v>0.2838331010611512</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2619,16 +2649,16 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D59">
-        <v>0.090628125</v>
+        <v>0.07738095238095237</v>
       </c>
       <c r="E59">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F59">
-        <v>0.2977164628698112</v>
+        <v>0.2833137301083127</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2636,16 +2666,16 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D60">
-        <v>0.09133184523809523</v>
+        <v>0.07803571428571429</v>
       </c>
       <c r="E60">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F60">
-        <v>0.296837043657903</v>
+        <v>0.2825538580995587</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2653,16 +2683,16 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D61">
-        <v>0.09144613095238097</v>
+        <v>0.07906249999999999</v>
       </c>
       <c r="E61">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F61">
-        <v>0.2966654394069691</v>
+        <v>0.2812161604522287</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2670,16 +2700,16 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D62">
-        <v>0.09673541666666667</v>
+        <v>0.08260416666666667</v>
       </c>
       <c r="E62">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F62">
-        <v>0.2891685588847103</v>
+        <v>0.2770213753667166</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2687,16 +2717,16 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D63">
-        <v>0.09912678571428572</v>
+        <v>0.08321428571428571</v>
       </c>
       <c r="E63">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F63">
-        <v>0.2857660017463052</v>
+        <v>0.2761329638722018</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2704,16 +2734,16 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D64">
-        <v>0.1010452380952381</v>
+        <v>0.08351190476190476</v>
       </c>
       <c r="E64">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F64">
-        <v>0.2830353648937041</v>
+        <v>0.2758262565893751</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2721,16 +2751,16 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D65">
-        <v>0.103472619047619</v>
+        <v>0.08480654761904761</v>
       </c>
       <c r="E65">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F65">
-        <v>0.2799635114028726</v>
+        <v>0.2742532070432553</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2738,16 +2768,16 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D66">
-        <v>0.1034800595238095</v>
+        <v>0.0853125</v>
       </c>
       <c r="E66">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F66">
-        <v>0.279961283827158</v>
+        <v>0.2737459601759741</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2755,16 +2785,16 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D67">
-        <v>0.1037852678571429</v>
+        <v>0.08766369047619048</v>
       </c>
       <c r="E67">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F67">
-        <v>0.2796262931750007</v>
+        <v>0.2714691132695471</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2772,16 +2802,16 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D68">
-        <v>0.1044358630952381</v>
+        <v>0.08824404761904762</v>
       </c>
       <c r="E68">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F68">
-        <v>0.27870640956771</v>
+        <v>0.2708915853161156</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2789,16 +2819,16 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D69">
-        <v>0.104714880952381</v>
+        <v>0.08895833333333332</v>
       </c>
       <c r="E69">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F69">
-        <v>0.2784021888980909</v>
+        <v>0.2703578765001313</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2806,16 +2836,16 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="D70">
-        <v>0.1059903273809524</v>
+        <v>0.08976190476190476</v>
       </c>
       <c r="E70">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F70">
-        <v>0.2766399774370685</v>
+        <v>0.2696794470582762</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2823,16 +2853,16 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D71">
-        <v>0.1065046130952381</v>
+        <v>0.09138392857142856</v>
       </c>
       <c r="E71">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F71">
-        <v>0.2759919555826743</v>
+        <v>0.2683476060490605</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2840,16 +2870,16 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D72">
-        <v>0.1099302083333333</v>
+        <v>0.0928422619047619</v>
       </c>
       <c r="E72">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F72">
-        <v>0.271502662979054</v>
+        <v>0.2673244427494169</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2857,16 +2887,16 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D73">
-        <v>0.1099479166666667</v>
+        <v>0.09302083333333333</v>
       </c>
       <c r="E73">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F73">
-        <v>0.2714631038777802</v>
+        <v>0.2670992593279502</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2874,16 +2904,16 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D74">
-        <v>0.1105333333333333</v>
+        <v>0.09425595238095237</v>
       </c>
       <c r="E74">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F74">
-        <v>0.2707759225145883</v>
+        <v>0.2661218791061367</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2891,16 +2921,16 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D75">
-        <v>0.112975</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="E75">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F75">
-        <v>0.2674866824679623</v>
+        <v>0.2647069160107544</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2908,16 +2938,16 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D76">
-        <v>0.1135383928571428</v>
+        <v>0.09587797619047619</v>
       </c>
       <c r="E76">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F76">
-        <v>0.2666598642058753</v>
+        <v>0.2646438921498866</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2925,16 +2955,16 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D77">
-        <v>0.1162977678571429</v>
+        <v>0.09796130952380952</v>
       </c>
       <c r="E77">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F77">
-        <v>0.2630499657280014</v>
+        <v>0.2625981404541802</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2942,16 +2972,16 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D78">
-        <v>0.1174577380952381</v>
+        <v>0.09870535714285714</v>
       </c>
       <c r="E78">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F78">
-        <v>0.2617026059704562</v>
+        <v>0.2618749314620197</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2959,16 +2989,16 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="D79">
-        <v>0.1203337797619047</v>
+        <v>0.09892857142857144</v>
       </c>
       <c r="E79">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F79">
-        <v>0.257802004154819</v>
+        <v>0.261671336290652</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2976,16 +3006,16 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D80">
-        <v>0.1211424107142857</v>
+        <v>0.09998511904761903</v>
       </c>
       <c r="E80">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F80">
-        <v>0.2567143211109468</v>
+        <v>0.2609004941187474</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2993,16 +3023,16 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D81">
-        <v>0.1232178571428572</v>
+        <v>0.1004315476190476</v>
       </c>
       <c r="E81">
-        <v>0.9658774869109948</v>
+        <v>0.843625</v>
       </c>
       <c r="F81">
-        <v>0.2542320923868837</v>
+        <v>0.2603764814077638</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3010,16 +3040,16 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="D82">
-        <v>0.1245613095238095</v>
+        <v>0.109672619047619</v>
       </c>
       <c r="E82">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F82">
-        <v>0.2525490143616494</v>
+        <v>0.2549431459424801</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3027,16 +3057,16 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D83">
-        <v>0.1248813988095238</v>
+        <v>0.1100744047619048</v>
       </c>
       <c r="E83">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F83">
-        <v>0.2520680992113844</v>
+        <v>0.2546859871266189</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3044,16 +3074,16 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="D84">
-        <v>0.1271888392857143</v>
+        <v>0.1124404761904762</v>
       </c>
       <c r="E84">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F84">
-        <v>0.2489434328839917</v>
+        <v>0.2534334019020806</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3061,16 +3091,16 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="D85">
-        <v>0.1290818452380952</v>
+        <v>0.1127678571428572</v>
       </c>
       <c r="E85">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F85">
-        <v>0.2466493571308748</v>
+        <v>0.2531553705761344</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3078,16 +3108,16 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="D86">
-        <v>0.1291119047619048</v>
+        <v>0.1133184523809524</v>
       </c>
       <c r="E86">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F86">
-        <v>0.246620947512751</v>
+        <v>0.2528222459630727</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3095,16 +3125,16 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D87">
-        <v>0.1316565476190477</v>
+        <v>0.1139583333333333</v>
       </c>
       <c r="E87">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F87">
-        <v>0.2439304175498191</v>
+        <v>0.2525307748136864</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3112,16 +3142,16 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D88">
-        <v>0.1326724702380952</v>
+        <v>0.1140922619047619</v>
       </c>
       <c r="E88">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F88">
-        <v>0.2426021578992457</v>
+        <v>0.2524975742923784</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3129,16 +3159,16 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D89">
-        <v>0.1345596726190476</v>
+        <v>0.1150892857142857</v>
       </c>
       <c r="E89">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F89">
-        <v>0.2404965177866541</v>
+        <v>0.252173720857824</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3146,16 +3176,16 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D90">
-        <v>0.1368415178571429</v>
+        <v>0.1172172619047619</v>
       </c>
       <c r="E90">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F90">
-        <v>0.2380464342042334</v>
+        <v>0.2514225975210311</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3163,16 +3193,16 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="D91">
-        <v>0.1375586309523809</v>
+        <v>0.1179761904761905</v>
       </c>
       <c r="E91">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F91">
-        <v>0.2372848535629785</v>
+        <v>0.2512233324866694</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3180,16 +3210,16 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D92">
-        <v>0.1376723214285714</v>
+        <v>0.1236309523809524</v>
       </c>
       <c r="E92">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F92">
-        <v>0.2371150760478379</v>
+        <v>0.2493685313501253</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3197,16 +3227,16 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D93">
-        <v>0.1378549107142857</v>
+        <v>0.1273809523809523</v>
       </c>
       <c r="E93">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F93">
-        <v>0.2369066457549704</v>
+        <v>0.2474905561137946</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3214,16 +3244,16 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="D94">
-        <v>0.1399438988095238</v>
+        <v>0.1289285714285714</v>
       </c>
       <c r="E94">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F94">
-        <v>0.2348705120151894</v>
+        <v>0.2461721499307823</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3231,16 +3261,16 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="D95">
-        <v>0.1406037202380953</v>
+        <v>0.1289880952380953</v>
       </c>
       <c r="E95">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F95">
-        <v>0.2341936379849147</v>
+        <v>0.2461437834085637</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3248,16 +3278,16 @@
         <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="D96">
-        <v>0.1424934523809523</v>
+        <v>0.1293005952380953</v>
       </c>
       <c r="E96">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F96">
-        <v>0.2322787984960769</v>
+        <v>0.2459450187502588</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3265,16 +3295,16 @@
         <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="D97">
-        <v>0.1427947916666667</v>
+        <v>0.1325</v>
       </c>
       <c r="E97">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F97">
-        <v>0.2319822248457493</v>
+        <v>0.2439000810338245</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3282,16 +3312,16 @@
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D98">
-        <v>0.1447357142857143</v>
+        <v>0.1328422619047619</v>
       </c>
       <c r="E98">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F98">
-        <v>0.2302305252469467</v>
+        <v>0.2435837459020671</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3299,16 +3329,16 @@
         <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D99">
-        <v>0.1473364583333333</v>
+        <v>0.1338541666666667</v>
       </c>
       <c r="E99">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F99">
-        <v>0.2277374772496283</v>
+        <v>0.2429465299160541</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3316,16 +3346,16 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="D100">
-        <v>0.1505474702380953</v>
+        <v>0.1341666666666667</v>
       </c>
       <c r="E100">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F100">
-        <v>0.2250444445690213</v>
+        <v>0.2427283411807339</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3333,16 +3363,16 @@
         <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D101">
-        <v>0.1564306547619048</v>
+        <v>0.134375</v>
       </c>
       <c r="E101">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F101">
-        <v>0.2200027285663861</v>
+        <v>0.2425750948623749</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3350,16 +3380,16 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D102">
-        <v>0.1572306547619048</v>
+        <v>0.1345535714285714</v>
       </c>
       <c r="E102">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F102">
-        <v>0.2193329010955937</v>
+        <v>0.2424294594491017</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3367,16 +3397,16 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D103">
-        <v>0.1594706845238095</v>
+        <v>0.1350446428571428</v>
       </c>
       <c r="E103">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F103">
-        <v>0.2175399803185771</v>
+        <v>0.2420875822972214</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3384,16 +3414,16 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D104">
-        <v>0.1595526785714285</v>
+        <v>0.137172619047619</v>
       </c>
       <c r="E104">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F104">
-        <v>0.2174755134087517</v>
+        <v>0.2407337714958924</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3401,16 +3431,16 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D105">
-        <v>0.1602907738095238</v>
+        <v>0.1371875</v>
       </c>
       <c r="E105">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F105">
-        <v>0.2169865981495323</v>
+        <v>0.2407033685114048</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3418,16 +3448,16 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D106">
-        <v>0.1618092261904762</v>
+        <v>0.1397023809523809</v>
       </c>
       <c r="E106">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F106">
-        <v>0.2156967223844503</v>
+        <v>0.2390865727285737</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3435,16 +3465,16 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="D107">
-        <v>0.1637488095238095</v>
+        <v>0.1410416666666667</v>
       </c>
       <c r="E107">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F107">
-        <v>0.214196949485589</v>
+        <v>0.238122591185721</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3452,16 +3482,16 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D108">
-        <v>0.1650980654761904</v>
+        <v>0.1414880952380952</v>
       </c>
       <c r="E108">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F108">
-        <v>0.2130676247753112</v>
+        <v>0.2378477152415024</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3469,16 +3499,16 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D109">
-        <v>0.1656953869047619</v>
+        <v>0.1425595238095238</v>
       </c>
       <c r="E109">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F109">
-        <v>0.2126562991976175</v>
+        <v>0.2372076675788997</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3486,16 +3516,16 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="D110">
-        <v>0.166288244047619</v>
+        <v>0.1428125</v>
       </c>
       <c r="E110">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F110">
-        <v>0.2122179839594928</v>
+        <v>0.2370832216126893</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3503,16 +3533,16 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D111">
-        <v>0.169778869047619</v>
+        <v>0.1433928571428572</v>
       </c>
       <c r="E111">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F111">
-        <v>0.2095582002590367</v>
+        <v>0.2366934031013236</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3520,16 +3550,16 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="D112">
-        <v>0.1700933035714285</v>
+        <v>0.145625</v>
       </c>
       <c r="E112">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F112">
-        <v>0.2093282159571276</v>
+        <v>0.2351210993680463</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3537,16 +3567,16 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="D113">
-        <v>0.1703020833333333</v>
+        <v>0.146547619047619</v>
       </c>
       <c r="E113">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F113">
-        <v>0.2091631888757474</v>
+        <v>0.2345796312680209</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3554,16 +3584,16 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="D114">
-        <v>0.1728221726190476</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="E114">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F114">
-        <v>0.2073487639324663</v>
+        <v>0.2340028588543268</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3571,16 +3601,16 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D115">
-        <v>0.1754877976190476</v>
+        <v>0.1491964285714286</v>
       </c>
       <c r="E115">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F115">
-        <v>0.2052293463637105</v>
+        <v>0.2330195135507117</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3588,16 +3618,16 @@
         <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D116">
-        <v>0.1775040178571429</v>
+        <v>0.1492559523809524</v>
       </c>
       <c r="E116">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F116">
-        <v>0.2035693359431034</v>
+        <v>0.2329605582510699</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3605,16 +3635,16 @@
         <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D117">
-        <v>0.1780572916666667</v>
+        <v>0.1493452380952381</v>
       </c>
       <c r="E117">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F117">
-        <v>0.2031652239089805</v>
+        <v>0.2328552161650673</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3622,16 +3652,16 @@
         <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D118">
-        <v>0.1786708333333333</v>
+        <v>0.1501488095238095</v>
       </c>
       <c r="E118">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F118">
-        <v>0.2027151478744165</v>
+        <v>0.2324468315131853</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3639,16 +3669,16 @@
         <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="D119">
-        <v>0.1818202380952381</v>
+        <v>0.1525446428571428</v>
       </c>
       <c r="E119">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F119">
-        <v>0.2004306746934806</v>
+        <v>0.2312364340009794</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3656,16 +3686,16 @@
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D120">
-        <v>0.1839522321428572</v>
+        <v>0.1531547619047619</v>
       </c>
       <c r="E120">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F120">
-        <v>0.1989666760403597</v>
+        <v>0.2309702546279821</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3673,16 +3703,16 @@
         <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D121">
-        <v>0.1882308035714285</v>
+        <v>0.1563244047619048</v>
       </c>
       <c r="E121">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F121">
-        <v>0.1958024923166286</v>
+        <v>0.2296324444955627</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3690,16 +3720,16 @@
         <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D122">
-        <v>0.1889558035714285</v>
+        <v>0.1565029761904762</v>
       </c>
       <c r="E122">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F122">
-        <v>0.1952598236639818</v>
+        <v>0.2295351745782279</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3707,16 +3737,16 @@
         <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D123">
-        <v>0.1905148809523809</v>
+        <v>0.157202380952381</v>
       </c>
       <c r="E123">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F123">
-        <v>0.194083892603387</v>
+        <v>0.2293412089819152</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3724,16 +3754,16 @@
         <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="D124">
-        <v>0.1914267857142857</v>
+        <v>0.160952380952381</v>
       </c>
       <c r="E124">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F124">
-        <v>0.1935138889666512</v>
+        <v>0.2280282998135383</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3741,16 +3771,16 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D125">
-        <v>0.1922717261904762</v>
+        <v>0.1611904761904762</v>
       </c>
       <c r="E125">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F125">
-        <v>0.192920045427585</v>
+        <v>0.2279510196256138</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3758,16 +3788,16 @@
         <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="D126">
-        <v>0.1926510416666667</v>
+        <v>0.1638690476190476</v>
       </c>
       <c r="E126">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F126">
-        <v>0.1926735206921162</v>
+        <v>0.2269390928128162</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3775,16 +3805,16 @@
         <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="D127">
-        <v>0.1935214285714285</v>
+        <v>0.1648809523809524</v>
       </c>
       <c r="E127">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F127">
-        <v>0.1921608606114688</v>
+        <v>0.2265081047678232</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3792,16 +3822,16 @@
         <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D128">
-        <v>0.1943385416666667</v>
+        <v>0.1653571428571429</v>
       </c>
       <c r="E128">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F128">
-        <v>0.1914736807105614</v>
+        <v>0.2262051927179297</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3809,16 +3839,16 @@
         <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="D129">
-        <v>0.1947059523809524</v>
+        <v>0.1678422619047619</v>
       </c>
       <c r="E129">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F129">
-        <v>0.1912451457266277</v>
+        <v>0.2249739120433173</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3826,16 +3856,16 @@
         <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D130">
-        <v>0.1964096726190477</v>
+        <v>0.1705952380952381</v>
       </c>
       <c r="E130">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F130">
-        <v>0.1900948459305266</v>
+        <v>0.2238807586814391</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3843,16 +3873,16 @@
         <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D131">
-        <v>0.1985089285714285</v>
+        <v>0.1715327380952381</v>
       </c>
       <c r="E131">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F131">
-        <v>0.1886669102318889</v>
+        <v>0.223486656627679</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3860,16 +3890,16 @@
         <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="D132">
-        <v>0.2004410714285715</v>
+        <v>0.1722321428571429</v>
       </c>
       <c r="E132">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F132">
-        <v>0.1873625062620229</v>
+        <v>0.2231618885284614</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3877,16 +3907,16 @@
         <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D133">
-        <v>0.2013127976190476</v>
+        <v>0.1728869047619047</v>
       </c>
       <c r="E133">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F133">
-        <v>0.1868674182823663</v>
+        <v>0.2229020049288199</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3894,16 +3924,16 @@
         <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="D134">
-        <v>0.2033528273809524</v>
+        <v>0.1729613095238095</v>
       </c>
       <c r="E134">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F134">
-        <v>0.1854743484040988</v>
+        <v>0.2228763358346345</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3911,16 +3941,16 @@
         <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D135">
-        <v>0.2038681547619048</v>
+        <v>0.1734077380952381</v>
       </c>
       <c r="E135">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F135">
-        <v>0.18517407618377</v>
+        <v>0.2226240200980767</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3928,16 +3958,16 @@
         <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D136">
-        <v>0.2049543154761905</v>
+        <v>0.1759077380952381</v>
       </c>
       <c r="E136">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F136">
-        <v>0.1845031130237429</v>
+        <v>0.2217489312394174</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3945,16 +3975,16 @@
         <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="D137">
-        <v>0.2050584821428572</v>
+        <v>0.1769345238095238</v>
       </c>
       <c r="E137">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F137">
-        <v>0.1844372323742869</v>
+        <v>0.2213515601557831</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3962,16 +3992,16 @@
         <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D138">
-        <v>0.2092876488095238</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="E138">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F138">
-        <v>0.1815584826231647</v>
+        <v>0.2212884780583579</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3979,16 +4009,16 @@
         <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="D139">
-        <v>0.2099742559523809</v>
+        <v>0.1788392857142857</v>
       </c>
       <c r="E139">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F139">
-        <v>0.1810793729008583</v>
+        <v>0.2204989266008895</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3996,16 +4026,16 @@
         <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D140">
-        <v>0.2105407738095238</v>
+        <v>0.1813392857142857</v>
       </c>
       <c r="E140">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F140">
-        <v>0.1807328706455377</v>
+        <v>0.2196914327991684</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4013,16 +4043,16 @@
         <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="D141">
-        <v>0.2108200892857143</v>
+        <v>0.1851488095238095</v>
       </c>
       <c r="E141">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F141">
-        <v>0.1805458561229615</v>
+        <v>0.2184167667677183</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4030,16 +4060,16 @@
         <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D142">
-        <v>0.2139305059523809</v>
+        <v>0.1852678571428572</v>
       </c>
       <c r="E142">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F142">
-        <v>0.1785735607089902</v>
+        <v>0.2183549148864966</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4047,16 +4077,16 @@
         <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D143">
-        <v>0.2172502976190477</v>
+        <v>0.1864285714285714</v>
       </c>
       <c r="E143">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F143">
-        <v>0.1764766031721168</v>
+        <v>0.2179817063645469</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4064,16 +4094,16 @@
         <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D144">
-        <v>0.2182456845238095</v>
+        <v>0.1867410714285714</v>
       </c>
       <c r="E144">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F144">
-        <v>0.1757578076679926</v>
+        <v>0.2178630133578275</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4081,16 +4111,16 @@
         <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D145">
-        <v>0.2184211309523809</v>
+        <v>0.1880208333333333</v>
       </c>
       <c r="E145">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F145">
-        <v>0.1756288673978519</v>
+        <v>0.2173074541503529</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4098,16 +4128,16 @@
         <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D146">
-        <v>0.2189639880952381</v>
+        <v>0.1893005952380953</v>
       </c>
       <c r="E146">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F146">
-        <v>0.1753473807756981</v>
+        <v>0.2168035766913304</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4115,16 +4145,16 @@
         <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="D147">
-        <v>0.2189947916666667</v>
+        <v>0.1901934523809524</v>
       </c>
       <c r="E147">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F147">
-        <v>0.175335284689184</v>
+        <v>0.216462935516793</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4132,16 +4162,16 @@
         <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="D148">
-        <v>0.220181994047619</v>
+        <v>0.1907589285714285</v>
       </c>
       <c r="E148">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F148">
-        <v>0.1745665384814707</v>
+        <v>0.2162370290860435</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4149,16 +4179,16 @@
         <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D149">
-        <v>0.2202876488095238</v>
+        <v>0.1913690476190476</v>
       </c>
       <c r="E149">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F149">
-        <v>0.1744903834237749</v>
+        <v>0.2159820906684112</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,16 +4196,16 @@
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="D150">
-        <v>0.2223270833333333</v>
+        <v>0.1920982142857143</v>
       </c>
       <c r="E150">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F150">
-        <v>0.1730963163616127</v>
+        <v>0.2156636176833041</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,16 +4213,16 @@
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D151">
-        <v>0.222571130952381</v>
+        <v>0.1926636904761905</v>
       </c>
       <c r="E151">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F151">
-        <v>0.1730116819931443</v>
+        <v>0.215361925586556</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4200,16 +4230,16 @@
         <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="D152">
-        <v>0.226261755952381</v>
+        <v>0.1936309523809524</v>
       </c>
       <c r="E152">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F152">
-        <v>0.1705407932129301</v>
+        <v>0.2148221831154294</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4217,16 +4247,16 @@
         <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D153">
-        <v>0.2277373511904762</v>
+        <v>0.1941071428571429</v>
       </c>
       <c r="E153">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F153">
-        <v>0.1696597188678171</v>
+        <v>0.2146388123698056</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,16 +4264,16 @@
         <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D154">
-        <v>0.2277837797619048</v>
+        <v>0.1954761904761905</v>
       </c>
       <c r="E154">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F154">
-        <v>0.1696318523531967</v>
+        <v>0.2140843299811097</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4251,16 +4281,16 @@
         <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D155">
-        <v>0.2279077380952381</v>
+        <v>0.1955654761904762</v>
       </c>
       <c r="E155">
-        <v>0.9658774869109948</v>
+        <v>0.8533766233766233</v>
       </c>
       <c r="F155">
-        <v>0.1695743355368131</v>
+        <v>0.2140223257192633</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4268,16 +4298,16 @@
         <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D156">
-        <v>0.2297513392857143</v>
+        <v>0.1999107142857143</v>
       </c>
       <c r="E156">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F156">
-        <v>0.1684701235156399</v>
+        <v>0.2118543549114099</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4288,13 +4318,13 @@
         <v>379</v>
       </c>
       <c r="D157">
-        <v>0.230930505952381</v>
+        <v>0.2003571428571428</v>
       </c>
       <c r="E157">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F157">
-        <v>0.1677136157309997</v>
+        <v>0.211559806646312</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4302,16 +4332,16 @@
         <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="D158">
-        <v>0.2316150297619048</v>
+        <v>0.2017410714285715</v>
       </c>
       <c r="E158">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F158">
-        <v>0.1671994378805633</v>
+        <v>0.2108592461676795</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4319,16 +4349,16 @@
         <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="D159">
-        <v>0.2323083333333333</v>
+        <v>0.2045535714285714</v>
       </c>
       <c r="E159">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F159">
-        <v>0.1668083323000696</v>
+        <v>0.2092200184711657</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4336,16 +4366,16 @@
         <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D160">
-        <v>0.2335659226190477</v>
+        <v>0.2063244047619048</v>
       </c>
       <c r="E160">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F160">
-        <v>0.1660910288691519</v>
+        <v>0.2082467283540113</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4353,16 +4383,16 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D161">
-        <v>0.2348706845238095</v>
+        <v>0.2073958333333333</v>
       </c>
       <c r="E161">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F161">
-        <v>0.1652982612184194</v>
+        <v>0.2076686116743423</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4370,16 +4400,16 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="D162">
-        <v>0.2363372023809524</v>
+        <v>0.2092857142857143</v>
       </c>
       <c r="E162">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F162">
-        <v>0.1644223946625607</v>
+        <v>0.2065246693859729</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4387,16 +4417,16 @@
         <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D163">
-        <v>0.2371171130952381</v>
+        <v>0.2109523809523809</v>
       </c>
       <c r="E163">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F163">
-        <v>0.163987884588943</v>
+        <v>0.2057309871341869</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4404,16 +4434,16 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="D164">
-        <v>0.2376912202380952</v>
+        <v>0.211577380952381</v>
       </c>
       <c r="E164">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F164">
-        <v>0.163585316843619</v>
+        <v>0.2053446342950292</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4421,16 +4451,16 @@
         <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D165">
-        <v>0.2387238095238096</v>
+        <v>0.2123065476190477</v>
       </c>
       <c r="E165">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F165">
-        <v>0.1629422634380962</v>
+        <v>0.2048883987613621</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4438,16 +4468,16 @@
         <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D166">
-        <v>0.2405308035714286</v>
+        <v>0.2127380952380953</v>
       </c>
       <c r="E166">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F166">
-        <v>0.1619064144794617</v>
+        <v>0.2047079893167514</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4455,16 +4485,16 @@
         <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D167">
-        <v>0.2412325892857143</v>
+        <v>0.2130803571428571</v>
       </c>
       <c r="E167">
-        <v>0.9658774869109948</v>
+        <v>0.8625903614457829</v>
       </c>
       <c r="F167">
-        <v>0.1615070055930717</v>
+        <v>0.2045280019857408</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4472,16 +4502,16 @@
         <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="D168">
-        <v>0.2412858630952381</v>
+        <v>0.2149107142857143</v>
       </c>
       <c r="E168">
-        <v>0.9658774869109948</v>
+        <v>0.86375</v>
       </c>
       <c r="F168">
-        <v>0.1614708168046858</v>
+        <v>0.2035339806428779</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4489,16 +4519,16 @@
         <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D169">
-        <v>0.2434491071428571</v>
+        <v>0.2159375</v>
       </c>
       <c r="E169">
-        <v>0.9658774869109948</v>
+        <v>0.86375</v>
       </c>
       <c r="F169">
-        <v>0.1602940369914684</v>
+        <v>0.2029632705797781</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4506,16 +4536,16 @@
         <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D170">
-        <v>0.2440967261904762</v>
+        <v>0.2211755952380952</v>
       </c>
       <c r="E170">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F170">
-        <v>0.1599168553252471</v>
+        <v>0.1995749781525603</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4523,16 +4553,16 @@
         <v>175</v>
       </c>
       <c r="B171" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="D171">
-        <v>0.2514982142857143</v>
+        <v>0.2217857142857143</v>
       </c>
       <c r="E171">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F171">
-        <v>0.1555270175711886</v>
+        <v>0.1992186222837164</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4540,16 +4570,16 @@
         <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="D172">
-        <v>0.253955505952381</v>
+        <v>0.221889880952381</v>
       </c>
       <c r="E172">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F172">
-        <v>0.1541390268049203</v>
+        <v>0.1991502586140918</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4557,16 +4587,16 @@
         <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D173">
-        <v>0.2543305059523809</v>
+        <v>0.2224404761904762</v>
       </c>
       <c r="E173">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F173">
-        <v>0.153916338868972</v>
+        <v>0.1987109530578769</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4574,16 +4604,16 @@
         <v>178</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D174">
-        <v>0.2556321428571429</v>
+        <v>0.2237053571428571</v>
       </c>
       <c r="E174">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F174">
-        <v>0.1532885700183569</v>
+        <v>0.1980313804753337</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4591,16 +4621,16 @@
         <v>179</v>
       </c>
       <c r="B175" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="D175">
-        <v>0.2571880952380952</v>
+        <v>0.225</v>
       </c>
       <c r="E175">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F175">
-        <v>0.1524609843937572</v>
+        <v>0.1972751657393629</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4608,16 +4638,16 @@
         <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="D176">
-        <v>0.2587238095238095</v>
+        <v>0.2272172619047619</v>
       </c>
       <c r="E176">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F176">
-        <v>0.1516031084814726</v>
+        <v>0.1958304809956035</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4625,16 +4655,16 @@
         <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D177">
-        <v>0.2601566964285714</v>
+        <v>0.2288988095238096</v>
       </c>
       <c r="E177">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F177">
-        <v>0.1506975222968203</v>
+        <v>0.1948539213115311</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4642,16 +4672,16 @@
         <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D178">
-        <v>0.2605818452380952</v>
+        <v>0.2295535714285714</v>
       </c>
       <c r="E178">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F178">
-        <v>0.1504513024702082</v>
+        <v>0.1944862767338283</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4659,16 +4689,16 @@
         <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D179">
-        <v>0.2637995535714286</v>
+        <v>0.2302678571428572</v>
       </c>
       <c r="E179">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F179">
-        <v>0.1487185283339123</v>
+        <v>0.1941402632717212</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4676,16 +4706,16 @@
         <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="D180">
-        <v>0.2644717261904762</v>
+        <v>0.2306696428571429</v>
       </c>
       <c r="E180">
-        <v>0.9658774869109948</v>
+        <v>0.865977653631285</v>
       </c>
       <c r="F180">
-        <v>0.1484246899170495</v>
+        <v>0.1939326331123571</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4693,16 +4723,16 @@
         <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D181">
-        <v>0.2655565476190476</v>
+        <v>0.2319791666666667</v>
       </c>
       <c r="E181">
-        <v>0.9658774869109948</v>
+        <v>0.8660555555555556</v>
       </c>
       <c r="F181">
-        <v>0.1478759271649518</v>
+        <v>0.193265641365522</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4710,16 +4740,16 @@
         <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D182">
-        <v>0.2688779761904762</v>
+        <v>0.2347023809523809</v>
       </c>
       <c r="E182">
-        <v>0.9658774869109948</v>
+        <v>0.8673224043715848</v>
       </c>
       <c r="F182">
-        <v>0.1460819502265562</v>
+        <v>0.1917981126191921</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4727,16 +4757,16 @@
         <v>187</v>
       </c>
       <c r="B183" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="D183">
-        <v>0.2710873511904762</v>
+        <v>0.2356696428571429</v>
       </c>
       <c r="E183">
-        <v>0.9658774869109948</v>
+        <v>0.8673224043715848</v>
       </c>
       <c r="F183">
-        <v>0.1449401843670251</v>
+        <v>0.1912424482116027</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4744,16 +4774,16 @@
         <v>188</v>
       </c>
       <c r="B184" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="D184">
-        <v>0.271543005952381</v>
+        <v>0.2361904761904762</v>
       </c>
       <c r="E184">
-        <v>0.9658774869109948</v>
+        <v>0.8673224043715848</v>
       </c>
       <c r="F184">
-        <v>0.1447031215426373</v>
+        <v>0.1909862376751077</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4761,16 +4791,16 @@
         <v>189</v>
       </c>
       <c r="B185" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="D185">
-        <v>0.2716046130952381</v>
+        <v>0.2399404761904762</v>
       </c>
       <c r="E185">
-        <v>0.9658774869109948</v>
+        <v>0.8730270270270271</v>
       </c>
       <c r="F185">
-        <v>0.144651611100064</v>
+        <v>0.1890207256464063</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4778,16 +4808,16 @@
         <v>190</v>
       </c>
       <c r="B186" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D186">
-        <v>0.2726849702380952</v>
+        <v>0.2403422619047619</v>
       </c>
       <c r="E186">
-        <v>0.9658774869109948</v>
+        <v>0.8730270270270271</v>
       </c>
       <c r="F186">
-        <v>0.1440819230359652</v>
+        <v>0.1888164965732755</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4795,16 +4825,16 @@
         <v>191</v>
       </c>
       <c r="B187" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D187">
-        <v>0.272964880952381</v>
+        <v>0.2447172619047619</v>
       </c>
       <c r="E187">
-        <v>0.9658774869109948</v>
+        <v>0.8816577540106951</v>
       </c>
       <c r="F187">
-        <v>0.143972534153305</v>
+        <v>0.1867288130810209</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4812,16 +4842,16 @@
         <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="D188">
-        <v>0.2731605654761905</v>
+        <v>0.2453422619047619</v>
       </c>
       <c r="E188">
-        <v>0.9658774869109948</v>
+        <v>0.8816577540106951</v>
       </c>
       <c r="F188">
-        <v>0.1438889713065583</v>
+        <v>0.1864726127963643</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4829,16 +4859,16 @@
         <v>193</v>
       </c>
       <c r="B189" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="D189">
-        <v>0.2732686011904762</v>
+        <v>0.2495684523809524</v>
       </c>
       <c r="E189">
-        <v>0.9658774869109948</v>
+        <v>0.8838743455497382</v>
       </c>
       <c r="F189">
-        <v>0.1438518176473418</v>
+        <v>0.1849337179154207</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4846,16 +4876,16 @@
         <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D190">
-        <v>0.2733790178571429</v>
+        <v>0.25</v>
       </c>
       <c r="E190">
-        <v>0.9658774869109948</v>
+        <v>0.8838743455497382</v>
       </c>
       <c r="F190">
-        <v>0.1438029956528469</v>
+        <v>0.1848403914091524</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4863,16 +4893,16 @@
         <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D191">
-        <v>0.2741919642857143</v>
+        <v>0.2501785714285714</v>
       </c>
       <c r="E191">
-        <v>0.9658774869109948</v>
+        <v>0.8838743455497382</v>
       </c>
       <c r="F191">
-        <v>0.1434033494007685</v>
+        <v>0.184797798558863</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4880,16 +4910,16 @@
         <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D192">
-        <v>0.2745276785714286</v>
+        <v>0.2512202380952381</v>
       </c>
       <c r="E192">
-        <v>0.9658774869109948</v>
+        <v>0.8838743455497382</v>
       </c>
       <c r="F192">
-        <v>0.1432157660320707</v>
+        <v>0.1844852269979673</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4897,16 +4927,16 @@
         <v>197</v>
       </c>
       <c r="B193" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D193">
-        <v>0.2809008928571429</v>
+        <v>0.2561755952380952</v>
       </c>
       <c r="E193">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F193">
-        <v>0.1397934901215813</v>
+        <v>0.1832926397331071</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4914,16 +4944,16 @@
         <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D194">
-        <v>0.2816620535714286</v>
+        <v>0.2579017857142857</v>
       </c>
       <c r="E194">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F194">
-        <v>0.1394228010754485</v>
+        <v>0.1827897142110975</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4931,16 +4961,16 @@
         <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="D195">
-        <v>0.2854688988095238</v>
+        <v>0.2615327380952381</v>
       </c>
       <c r="E195">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F195">
-        <v>0.1374929883875399</v>
+        <v>0.1818081981692473</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4948,16 +4978,16 @@
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D196">
-        <v>0.2860519345238095</v>
+        <v>0.2616964285714285</v>
       </c>
       <c r="E196">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F196">
-        <v>0.1372956442163122</v>
+        <v>0.1817440977488951</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4965,16 +4995,16 @@
         <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="D197">
-        <v>0.2895565476190476</v>
+        <v>0.2623958333333333</v>
       </c>
       <c r="E197">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F197">
-        <v>0.1355053602739013</v>
+        <v>0.1815999986475713</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4982,30 +5012,33 @@
         <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="D198">
-        <v>0.2896706845238095</v>
+        <v>0.2654315476190476</v>
       </c>
       <c r="E198">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F198">
-        <v>0.1354624317288738</v>
+        <v>0.1808939740340827</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="B199" t="s">
+        <v>339</v>
+      </c>
       <c r="D199">
-        <v>0.2903034226190476</v>
+        <v>0.2667708333333333</v>
       </c>
       <c r="E199">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F199">
-        <v>0.1350805625313105</v>
+        <v>0.1804566611455441</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5013,16 +5046,16 @@
         <v>204</v>
       </c>
       <c r="B200" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="D200">
-        <v>0.2916385416666666</v>
+        <v>0.2670982142857143</v>
       </c>
       <c r="E200">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F200">
-        <v>0.1343524207728038</v>
+        <v>0.1803882070207452</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5030,16 +5063,16 @@
         <v>205</v>
       </c>
       <c r="B201" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D201">
-        <v>0.2938075892857143</v>
+        <v>0.2686160714285714</v>
       </c>
       <c r="E201">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F201">
-        <v>0.1332928746540509</v>
+        <v>0.1798564438742289</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5047,16 +5080,16 @@
         <v>206</v>
       </c>
       <c r="B202" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="D202">
-        <v>0.2941739583333333</v>
+        <v>0.2688392857142857</v>
       </c>
       <c r="E202">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F202">
-        <v>0.1330787104913851</v>
+        <v>0.1798107756067997</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5064,16 +5097,16 @@
         <v>207</v>
       </c>
       <c r="B203" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D203">
-        <v>0.2951087797619047</v>
+        <v>0.2701785714285714</v>
       </c>
       <c r="E203">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F203">
-        <v>0.1326727364826316</v>
+        <v>0.1794982758224197</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5081,16 +5114,16 @@
         <v>208</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="D204">
-        <v>0.2964630952380952</v>
+        <v>0.2715178571428571</v>
       </c>
       <c r="E204">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F204">
-        <v>0.1319151293516203</v>
+        <v>0.1791945955413989</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5098,16 +5131,16 @@
         <v>209</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D205">
-        <v>0.2966919642857143</v>
+        <v>0.271547619047619</v>
       </c>
       <c r="E205">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F205">
-        <v>0.1318259303905355</v>
+        <v>0.1791900237581817</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5115,16 +5148,16 @@
         <v>210</v>
       </c>
       <c r="B206" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D206">
-        <v>0.2983526785714285</v>
+        <v>0.2718452380952381</v>
       </c>
       <c r="E206">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F206">
-        <v>0.1309082318494775</v>
+        <v>0.1791397833239342</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5132,16 +5165,16 @@
         <v>211</v>
       </c>
       <c r="B207" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D207">
-        <v>0.2985126488095238</v>
+        <v>0.2765773809523809</v>
       </c>
       <c r="E207">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F207">
-        <v>0.1308134099051113</v>
+        <v>0.1780297606935859</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5149,16 +5182,16 @@
         <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D208">
-        <v>0.2996150297619047</v>
+        <v>0.276875</v>
       </c>
       <c r="E208">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F208">
-        <v>0.1302243711704943</v>
+        <v>0.1779513205190434</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5166,16 +5199,16 @@
         <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D209">
-        <v>0.3022537202380952</v>
+        <v>0.2803869047619048</v>
       </c>
       <c r="E209">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F209">
-        <v>0.1289289521826266</v>
+        <v>0.1771651791984407</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5183,16 +5216,16 @@
         <v>214</v>
       </c>
       <c r="B210" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="D210">
-        <v>0.3041575892857143</v>
+        <v>0.2805059523809524</v>
       </c>
       <c r="E210">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F210">
-        <v>0.1280404460361241</v>
+        <v>0.1771286421530429</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5200,16 +5233,16 @@
         <v>215</v>
       </c>
       <c r="B211" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D211">
-        <v>0.3051690476190476</v>
+        <v>0.2808779761904762</v>
       </c>
       <c r="E211">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F211">
-        <v>0.1275351194922135</v>
+        <v>0.1770367671441526</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5217,16 +5250,16 @@
         <v>216</v>
       </c>
       <c r="B212" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="D212">
-        <v>0.3057191964285714</v>
+        <v>0.2832738095238095</v>
       </c>
       <c r="E212">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F212">
-        <v>0.1272314996395614</v>
+        <v>0.1765433102154738</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5234,16 +5267,16 @@
         <v>217</v>
       </c>
       <c r="B213" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D213">
-        <v>0.306696875</v>
+        <v>0.2851339285714285</v>
       </c>
       <c r="E213">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F213">
-        <v>0.1267402251616591</v>
+        <v>0.1761812889011519</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5251,16 +5284,16 @@
         <v>218</v>
       </c>
       <c r="B214" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D214">
-        <v>0.3096055059523809</v>
+        <v>0.2851934523809524</v>
       </c>
       <c r="E214">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F214">
-        <v>0.1251812180708357</v>
+        <v>0.1761634702972885</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5268,16 +5301,16 @@
         <v>219</v>
       </c>
       <c r="B215" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="D215">
-        <v>0.3106299107142857</v>
+        <v>0.2852232142857143</v>
       </c>
       <c r="E215">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F215">
-        <v>0.1245569109480273</v>
+        <v>0.1761510098311443</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5285,16 +5318,16 @@
         <v>220</v>
       </c>
       <c r="B216" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="D216">
-        <v>0.3131380952380952</v>
+        <v>0.2853720238095238</v>
       </c>
       <c r="E216">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F216">
-        <v>0.1232411783544256</v>
+        <v>0.1760879634567442</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5302,16 +5335,16 @@
         <v>221</v>
       </c>
       <c r="B217" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D217">
-        <v>0.3147245535714286</v>
+        <v>0.2869494047619048</v>
       </c>
       <c r="E217">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F217">
-        <v>0.1223666083843543</v>
+        <v>0.1755531108270313</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5319,16 +5352,16 @@
         <v>222</v>
       </c>
       <c r="B218" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D218">
-        <v>0.3159723214285714</v>
+        <v>0.2879166666666667</v>
       </c>
       <c r="E218">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F218">
-        <v>0.1218046097483129</v>
+        <v>0.1751567369825203</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5336,16 +5369,16 @@
         <v>223</v>
       </c>
       <c r="B219" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="D219">
-        <v>0.31631875</v>
+        <v>0.2905505952380952</v>
       </c>
       <c r="E219">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F219">
-        <v>0.1216843786345797</v>
+        <v>0.1741237420289149</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5353,16 +5386,16 @@
         <v>224</v>
       </c>
       <c r="B220" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D220">
-        <v>0.3165693452380952</v>
+        <v>0.2923511904761905</v>
       </c>
       <c r="E220">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F220">
-        <v>0.1214926970321119</v>
+        <v>0.1735358935330495</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5370,16 +5403,16 @@
         <v>225</v>
       </c>
       <c r="B221" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D221">
-        <v>0.3176581845238095</v>
+        <v>0.2940178571428572</v>
       </c>
       <c r="E221">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F221">
-        <v>0.120897113754538</v>
+        <v>0.1729011607080173</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5387,16 +5420,16 @@
         <v>226</v>
       </c>
       <c r="B222" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D222">
-        <v>0.3185428571428571</v>
+        <v>0.2945238095238095</v>
       </c>
       <c r="E222">
-        <v>0.9686009049773756</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F222">
-        <v>0.1204831507922762</v>
+        <v>0.1727492758598565</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5404,16 +5437,16 @@
         <v>227</v>
       </c>
       <c r="B223" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="D223">
-        <v>0.3210592261904762</v>
+        <v>0.2966220238095238</v>
       </c>
       <c r="E223">
-        <v>0.9718549549549548</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F223">
-        <v>0.119074869185896</v>
+        <v>0.1719273146850492</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5421,16 +5454,16 @@
         <v>228</v>
       </c>
       <c r="B224" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D224">
-        <v>0.3227735119047619</v>
+        <v>0.296875</v>
       </c>
       <c r="E224">
-        <v>0.9726627802690584</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F224">
-        <v>0.1181810928142051</v>
+        <v>0.1718214132525949</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5438,16 +5471,16 @@
         <v>229</v>
       </c>
       <c r="B225" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="D225">
-        <v>0.3264068452380952</v>
+        <v>0.2971130952380953</v>
       </c>
       <c r="E225">
-        <v>0.975974336283186</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F225">
-        <v>0.1162583274835192</v>
+        <v>0.171723492517237</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5455,16 +5488,16 @@
         <v>230</v>
       </c>
       <c r="B226" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D226">
-        <v>0.3268261904761905</v>
+        <v>0.2973660714285714</v>
       </c>
       <c r="E226">
-        <v>0.975974336283186</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F226">
-        <v>0.1160331029177501</v>
+        <v>0.1715983918248896</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5472,16 +5505,16 @@
         <v>231</v>
       </c>
       <c r="B227" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="D227">
-        <v>0.3282294642857143</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="E227">
-        <v>0.975974336283186</v>
+        <v>0.8849557522123893</v>
       </c>
       <c r="F227">
-        <v>0.115249380913985</v>
+        <v>0.1714743659608886</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5489,16 +5522,16 @@
         <v>232</v>
       </c>
       <c r="B228" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D228">
-        <v>0.3298803571428571</v>
+        <v>0.3016517857142857</v>
       </c>
       <c r="E228">
-        <v>0.9765621145374448</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F228">
-        <v>0.1143958526291708</v>
+        <v>0.169816610316887</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5506,16 +5539,16 @@
         <v>233</v>
       </c>
       <c r="B229" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="D229">
-        <v>0.3365764880952381</v>
+        <v>0.3032886904761905</v>
       </c>
       <c r="E229">
-        <v>0.9864582278481012</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F229">
-        <v>0.1108433072384906</v>
+        <v>0.169005178919268</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5523,16 +5556,16 @@
         <v>234</v>
       </c>
       <c r="B230" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D230">
-        <v>0.3399433035714285</v>
+        <v>0.3057589285714286</v>
       </c>
       <c r="E230">
-        <v>0.9864582278481012</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F230">
-        <v>0.1090694695510713</v>
+        <v>0.1674292393567249</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5540,16 +5573,16 @@
         <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D231">
-        <v>0.3403886904761905</v>
+        <v>0.3067857142857143</v>
       </c>
       <c r="E231">
-        <v>0.9864582278481012</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F231">
-        <v>0.1087734498518685</v>
+        <v>0.1669310152831082</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5557,16 +5590,16 @@
         <v>236</v>
       </c>
       <c r="B232" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="D232">
-        <v>0.3410157738095238</v>
+        <v>0.3091071428571429</v>
       </c>
       <c r="E232">
-        <v>0.9864582278481012</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F232">
-        <v>0.1084749126765302</v>
+        <v>0.1656123849149021</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5574,16 +5607,16 @@
         <v>237</v>
       </c>
       <c r="B233" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D233">
-        <v>0.3527008928571428</v>
+        <v>0.3108482142857143</v>
       </c>
       <c r="E233">
-        <v>0.9863621315192744</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F233">
-        <v>0.1022784156617968</v>
+        <v>0.1646308173705353</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5591,16 +5624,16 @@
         <v>238</v>
       </c>
       <c r="B234" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D234">
-        <v>0.3530135416666667</v>
+        <v>0.3111904761904762</v>
       </c>
       <c r="E234">
-        <v>0.9863621315192744</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F234">
-        <v>0.1021421547319465</v>
+        <v>0.1644290301169917</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5608,16 +5641,16 @@
         <v>239</v>
       </c>
       <c r="B235" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D235">
-        <v>0.3547136904761905</v>
+        <v>0.3146130952380952</v>
       </c>
       <c r="E235">
-        <v>0.9863621315192744</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F235">
-        <v>0.1012357417469069</v>
+        <v>0.1620665018010385</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5625,16 +5658,16 @@
         <v>240</v>
       </c>
       <c r="B236" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D236">
-        <v>0.3549897321428571</v>
+        <v>0.3165327380952381</v>
       </c>
       <c r="E236">
-        <v>0.9863621315192744</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F236">
-        <v>0.1010713564883173</v>
+        <v>0.1609363815803598</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5642,16 +5675,16 @@
         <v>241</v>
       </c>
       <c r="B237" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D237">
-        <v>0.3557549107142857</v>
+        <v>0.3167410714285714</v>
       </c>
       <c r="E237">
-        <v>0.9863621315192744</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F237">
-        <v>0.1006493989525574</v>
+        <v>0.1608112117903338</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5659,16 +5692,16 @@
         <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D238">
-        <v>0.3594479166666666</v>
+        <v>0.3169196428571429</v>
       </c>
       <c r="E238">
-        <v>0.9863621315192744</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F238">
-        <v>0.09860809940904568</v>
+        <v>0.1607241170401871</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5676,16 +5709,16 @@
         <v>243</v>
       </c>
       <c r="B239" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="D239">
-        <v>0.3626476190476191</v>
+        <v>0.3194345238095238</v>
       </c>
       <c r="E239">
-        <v>0.9846029885057472</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F239">
-        <v>0.09696434643231887</v>
+        <v>0.1592025485930139</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5693,16 +5726,16 @@
         <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="D240">
-        <v>0.3649794642857143</v>
+        <v>0.3205505952380953</v>
       </c>
       <c r="E240">
-        <v>0.9832691244239632</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F240">
-        <v>0.095782363323364</v>
+        <v>0.1585477337670669</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5710,16 +5743,16 @@
         <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D241">
-        <v>0.3670114583333333</v>
+        <v>0.3215625</v>
       </c>
       <c r="E241">
-        <v>0.9823824480369514</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F241">
-        <v>0.09457265024786328</v>
+        <v>0.1578854669833615</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5727,16 +5760,16 @@
         <v>246</v>
       </c>
       <c r="B242" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="D242">
-        <v>0.3692364583333334</v>
+        <v>0.322514880952381</v>
       </c>
       <c r="E242">
-        <v>0.981191898148148</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F242">
-        <v>0.09325735577024354</v>
+        <v>0.1572174150144625</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5744,16 +5777,16 @@
         <v>247</v>
       </c>
       <c r="B243" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D243">
-        <v>0.3712415178571429</v>
+        <v>0.3240327380952381</v>
       </c>
       <c r="E243">
-        <v>0.9803447795823664</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F243">
-        <v>0.09208434653113867</v>
+        <v>0.1560851139496124</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5761,16 +5794,16 @@
         <v>248</v>
       </c>
       <c r="B244" t="s">
-        <v>342</v>
+        <v>400</v>
       </c>
       <c r="D244">
-        <v>0.3714991071428572</v>
+        <v>0.324360119047619</v>
       </c>
       <c r="E244">
-        <v>0.9803447795823664</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F244">
-        <v>0.09188533556599933</v>
+        <v>0.1558724360789264</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5778,16 +5811,16 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="D245">
-        <v>0.3720686011904762</v>
+        <v>0.3246875</v>
       </c>
       <c r="E245">
-        <v>0.9803447795823664</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F245">
-        <v>0.09153775665543733</v>
+        <v>0.1556469520916812</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5795,16 +5828,16 @@
         <v>250</v>
       </c>
       <c r="B246" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="D246">
-        <v>0.3725473214285713</v>
+        <v>0.3246875</v>
       </c>
       <c r="E246">
-        <v>0.9803447795823664</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F246">
-        <v>0.09127912585608644</v>
+        <v>0.1556376079270319</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5812,16 +5845,16 @@
         <v>251</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D247">
-        <v>0.3745715773809524</v>
+        <v>0.3254464285714286</v>
       </c>
       <c r="E247">
-        <v>0.9803447795823664</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F247">
-        <v>0.09028688128550172</v>
+        <v>0.1552975352970874</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5829,16 +5862,16 @@
         <v>252</v>
       </c>
       <c r="B248" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D248">
-        <v>0.3751147321428571</v>
+        <v>0.326860119047619</v>
       </c>
       <c r="E248">
-        <v>0.9803447795823664</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F248">
-        <v>0.08993223777729857</v>
+        <v>0.1544660986405752</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5846,16 +5879,16 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D249">
-        <v>0.3786617559523809</v>
+        <v>0.3276488095238095</v>
       </c>
       <c r="E249">
-        <v>0.9803447795823664</v>
+        <v>0.8878225806451613</v>
       </c>
       <c r="F249">
-        <v>0.08800204403176717</v>
+        <v>0.1540733113110745</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5863,16 +5896,16 @@
         <v>254</v>
       </c>
       <c r="B250" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D250">
-        <v>0.37930625</v>
+        <v>0.3326785714285714</v>
       </c>
       <c r="E250">
-        <v>0.9803447795823664</v>
+        <v>0.8901190476190476</v>
       </c>
       <c r="F250">
-        <v>0.08768304693002167</v>
+        <v>0.1513716202035593</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5880,16 +5913,16 @@
         <v>255</v>
       </c>
       <c r="B251" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D251">
-        <v>0.3794077380952381</v>
+        <v>0.3330357142857143</v>
       </c>
       <c r="E251">
-        <v>0.9803447795823664</v>
+        <v>0.8901190476190476</v>
       </c>
       <c r="F251">
-        <v>0.08754884810060065</v>
+        <v>0.151193743977229</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5897,16 +5930,16 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="D252">
-        <v>0.3799647321428571</v>
+        <v>0.3336607142857143</v>
       </c>
       <c r="E252">
-        <v>0.9803447795823664</v>
+        <v>0.8901190476190476</v>
       </c>
       <c r="F252">
-        <v>0.08729413134025697</v>
+        <v>0.1507910118872348</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5914,16 +5947,16 @@
         <v>257</v>
       </c>
       <c r="B253" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D253">
-        <v>0.3801299107142857</v>
+        <v>0.3337946428571428</v>
       </c>
       <c r="E253">
-        <v>0.9803447795823664</v>
+        <v>0.8901190476190476</v>
       </c>
       <c r="F253">
-        <v>0.08721306679452831</v>
+        <v>0.1507415065705314</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5931,16 +5964,16 @@
         <v>258</v>
       </c>
       <c r="B254" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="D254">
-        <v>0.3806142857142857</v>
+        <v>0.3365327380952381</v>
       </c>
       <c r="E254">
-        <v>0.9803447795823664</v>
+        <v>0.8938735177865613</v>
       </c>
       <c r="F254">
-        <v>0.08687859456831692</v>
+        <v>0.1490833000516487</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5948,16 +5981,16 @@
         <v>259</v>
       </c>
       <c r="B255" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D255">
-        <v>0.38155</v>
+        <v>0.3422916666666667</v>
       </c>
       <c r="E255">
-        <v>0.9803447795823664</v>
+        <v>0.904470588235294</v>
       </c>
       <c r="F255">
-        <v>0.08629098694632342</v>
+        <v>0.1461457695347266</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5965,16 +5998,16 @@
         <v>260</v>
       </c>
       <c r="B256" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="D256">
-        <v>0.3834101190476191</v>
+        <v>0.3432142857142857</v>
       </c>
       <c r="E256">
-        <v>0.9803447795823664</v>
+        <v>0.904470588235294</v>
       </c>
       <c r="F256">
-        <v>0.08511506393111401</v>
+        <v>0.1456168127326927</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5982,16 +6015,16 @@
         <v>261</v>
       </c>
       <c r="B257" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="D257">
-        <v>0.3860858630952381</v>
+        <v>0.3472619047619048</v>
       </c>
       <c r="E257">
-        <v>0.9803447795823664</v>
+        <v>0.9094186046511628</v>
       </c>
       <c r="F257">
-        <v>0.08362588560518175</v>
+        <v>0.143322287745566</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5999,16 +6032,16 @@
         <v>262</v>
       </c>
       <c r="B258" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D258">
-        <v>0.3869019345238095</v>
+        <v>0.3487053571428572</v>
       </c>
       <c r="E258">
-        <v>0.9803447795823664</v>
+        <v>0.9094186046511628</v>
       </c>
       <c r="F258">
-        <v>0.08309305702769842</v>
+        <v>0.1426336169444201</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6016,16 +6049,16 @@
         <v>263</v>
       </c>
       <c r="B259" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D259">
-        <v>0.3881538690476191</v>
+        <v>0.3491517857142857</v>
       </c>
       <c r="E259">
-        <v>0.9803447795823664</v>
+        <v>0.9094186046511628</v>
       </c>
       <c r="F259">
-        <v>0.08242664196080864</v>
+        <v>0.1424525659278864</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6033,16 +6066,16 @@
         <v>264</v>
       </c>
       <c r="B260" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="D260">
-        <v>0.3889971726190476</v>
+        <v>0.3552678571428571</v>
       </c>
       <c r="E260">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F260">
-        <v>0.08189543257884119</v>
+        <v>0.1395851142622119</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6050,16 +6083,16 @@
         <v>265</v>
       </c>
       <c r="B261" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="D261">
-        <v>0.3895340773809524</v>
+        <v>0.3553869047619048</v>
       </c>
       <c r="E261">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F261">
-        <v>0.08155751126724355</v>
+        <v>0.1395202791443995</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6067,16 +6100,16 @@
         <v>266</v>
       </c>
       <c r="B262" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D262">
-        <v>0.3914924107142857</v>
+        <v>0.356875</v>
       </c>
       <c r="E262">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F262">
-        <v>0.0803998644434865</v>
+        <v>0.1388617299693899</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6084,16 +6117,16 @@
         <v>267</v>
       </c>
       <c r="B263" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="D263">
-        <v>0.3963098214285714</v>
+        <v>0.3569642857142857</v>
       </c>
       <c r="E263">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F263">
-        <v>0.07761375331166573</v>
+        <v>0.1388119638146429</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6101,16 +6134,16 @@
         <v>268</v>
       </c>
       <c r="B264" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D264">
-        <v>0.3977538690476191</v>
+        <v>0.3576934523809524</v>
       </c>
       <c r="E264">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F264">
-        <v>0.07674241427550202</v>
+        <v>0.1385260754935315</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6118,16 +6151,16 @@
         <v>269</v>
       </c>
       <c r="B265" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D265">
-        <v>0.3981569940476191</v>
+        <v>0.3611607142857143</v>
       </c>
       <c r="E265">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F265">
-        <v>0.07650770386373114</v>
+        <v>0.1370141603511357</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6138,13 +6171,13 @@
         <v>403</v>
       </c>
       <c r="D266">
-        <v>0.3991735119047619</v>
+        <v>0.365610119047619</v>
       </c>
       <c r="E266">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F266">
-        <v>0.07585994341719328</v>
+        <v>0.1350824243391865</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6152,16 +6185,16 @@
         <v>271</v>
       </c>
       <c r="B267" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D267">
-        <v>0.3993154761904762</v>
+        <v>0.3664880952380952</v>
       </c>
       <c r="E267">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F267">
-        <v>0.07573500833765139</v>
+        <v>0.1346345832917487</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6169,16 +6202,16 @@
         <v>272</v>
       </c>
       <c r="B268" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D268">
-        <v>0.4007127976190476</v>
+        <v>0.3670386904761905</v>
       </c>
       <c r="E268">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F268">
-        <v>0.07490994596211198</v>
+        <v>0.1343721707466451</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6186,16 +6219,16 @@
         <v>273</v>
       </c>
       <c r="B269" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="D269">
-        <v>0.4013311011904762</v>
+        <v>0.3680803571428571</v>
       </c>
       <c r="E269">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F269">
-        <v>0.07463179068335933</v>
+        <v>0.1339755059558798</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6203,16 +6236,16 @@
         <v>274</v>
       </c>
       <c r="B270" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="D270">
-        <v>0.4015284226190477</v>
+        <v>0.3687797619047619</v>
       </c>
       <c r="E270">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F270">
-        <v>0.07448044929973277</v>
+        <v>0.133663619911655</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6220,16 +6253,16 @@
         <v>275</v>
       </c>
       <c r="B271" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D271">
-        <v>0.4020974702380952</v>
+        <v>0.3699553571428572</v>
       </c>
       <c r="E271">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F271">
-        <v>0.07414023052642409</v>
+        <v>0.1332830209647768</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6237,16 +6270,16 @@
         <v>276</v>
       </c>
       <c r="B272" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="D272">
-        <v>0.4035044642857143</v>
+        <v>0.3704017857142857</v>
       </c>
       <c r="E272">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F272">
-        <v>0.07322996486741813</v>
+        <v>0.1330257260193108</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6254,16 +6287,16 @@
         <v>277</v>
       </c>
       <c r="B273" t="s">
-        <v>342</v>
+        <v>405</v>
       </c>
       <c r="D273">
-        <v>0.411974255952381</v>
+        <v>0.3710267857142857</v>
       </c>
       <c r="E273">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F273">
-        <v>0.06827257401286084</v>
+        <v>0.1328142458070911</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6271,16 +6304,16 @@
         <v>278</v>
       </c>
       <c r="B274" t="s">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="D274">
-        <v>0.4134839285714286</v>
+        <v>0.371577380952381</v>
       </c>
       <c r="E274">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F274">
-        <v>0.06725189382284215</v>
+        <v>0.1326105008759505</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6288,16 +6321,16 @@
         <v>279</v>
       </c>
       <c r="B275" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D275">
-        <v>0.4166339285714286</v>
+        <v>0.3716071428571429</v>
       </c>
       <c r="E275">
-        <v>0.9803447795823664</v>
+        <v>0.9113868613138686</v>
       </c>
       <c r="F275">
-        <v>0.06528077965135508</v>
+        <v>0.1326017637869527</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6305,16 +6338,16 @@
         <v>280</v>
       </c>
       <c r="B276" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D276">
-        <v>0.4175400297619048</v>
+        <v>0.3748065476190477</v>
       </c>
       <c r="E276">
-        <v>0.9803447795823664</v>
+        <v>0.9158909090909092</v>
       </c>
       <c r="F276">
-        <v>0.06473599311567496</v>
+        <v>0.1314691702762677</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6322,16 +6355,16 @@
         <v>281</v>
       </c>
       <c r="B277" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D277">
-        <v>0.4205809523809524</v>
+        <v>0.3783928571428571</v>
       </c>
       <c r="E277">
-        <v>0.9803447795823664</v>
+        <v>0.9213043478260871</v>
       </c>
       <c r="F277">
-        <v>0.06305390226094969</v>
+        <v>0.1302988382728931</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6339,16 +6372,16 @@
         <v>282</v>
       </c>
       <c r="B278" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D278">
-        <v>0.4207175595238095</v>
+        <v>0.3805357142857143</v>
       </c>
       <c r="E278">
-        <v>0.9803447795823664</v>
+        <v>0.922589928057554</v>
       </c>
       <c r="F278">
-        <v>0.06299543872736584</v>
+        <v>0.1296885484694397</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6356,16 +6389,16 @@
         <v>283</v>
       </c>
       <c r="B279" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D279">
-        <v>0.4207366071428572</v>
+        <v>0.3816666666666667</v>
       </c>
       <c r="E279">
-        <v>0.9803447795823664</v>
+        <v>0.922589928057554</v>
       </c>
       <c r="F279">
-        <v>0.06298171954239698</v>
+        <v>0.1293280860851216</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6373,16 +6406,16 @@
         <v>284</v>
       </c>
       <c r="B280" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D280">
-        <v>0.4212063988095238</v>
+        <v>0.3854315476190476</v>
       </c>
       <c r="E280">
-        <v>0.9803447795823664</v>
+        <v>0.9234982332155476</v>
       </c>
       <c r="F280">
-        <v>0.06271290984184136</v>
+        <v>0.1280605192359925</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6390,16 +6423,16 @@
         <v>285</v>
       </c>
       <c r="B281" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D281">
-        <v>0.4239607142857143</v>
+        <v>0.3867261904761905</v>
       </c>
       <c r="E281">
-        <v>0.9803447795823664</v>
+        <v>0.9234982332155476</v>
       </c>
       <c r="F281">
-        <v>0.06105797083730929</v>
+        <v>0.1276497641549313</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6407,16 +6440,16 @@
         <v>286</v>
       </c>
       <c r="B282" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="D282">
-        <v>0.4257772321428571</v>
+        <v>0.3872321428571429</v>
       </c>
       <c r="E282">
-        <v>0.9803447795823664</v>
+        <v>0.9234982332155476</v>
       </c>
       <c r="F282">
-        <v>0.05998702461839032</v>
+        <v>0.1274989900419539</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6424,16 +6457,16 @@
         <v>287</v>
       </c>
       <c r="B283" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="D283">
-        <v>0.4260965773809524</v>
+        <v>0.3880357142857143</v>
       </c>
       <c r="E283">
-        <v>0.9803447795823664</v>
+        <v>0.9234982332155476</v>
       </c>
       <c r="F283">
-        <v>0.05980342879836872</v>
+        <v>0.1272076352382125</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6441,16 +6474,16 @@
         <v>288</v>
       </c>
       <c r="B284" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="D284">
-        <v>0.4269446428571429</v>
+        <v>0.3889136904761905</v>
       </c>
       <c r="E284">
-        <v>0.9803447795823664</v>
+        <v>0.9234982332155476</v>
       </c>
       <c r="F284">
-        <v>0.05921777635055966</v>
+        <v>0.1269248051016275</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6458,16 +6491,16 @@
         <v>289</v>
       </c>
       <c r="B285" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D285">
-        <v>0.4310888392857143</v>
+        <v>0.3907142857142857</v>
       </c>
       <c r="E285">
-        <v>0.9803447795823664</v>
+        <v>0.9245070422535212</v>
       </c>
       <c r="F285">
-        <v>0.05679247891594889</v>
+        <v>0.1264171964748048</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6475,16 +6508,16 @@
         <v>290</v>
       </c>
       <c r="B286" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D286">
-        <v>0.4334316964285713</v>
+        <v>0.3973363095238096</v>
       </c>
       <c r="E286">
-        <v>0.9803447795823664</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F286">
-        <v>0.055299405720746</v>
+        <v>0.124601722165322</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6492,33 +6525,30 @@
         <v>291</v>
       </c>
       <c r="B287" t="s">
-        <v>406</v>
+        <v>339</v>
       </c>
       <c r="D287">
-        <v>0.4336572916666667</v>
+        <v>0.3975892857142857</v>
       </c>
       <c r="E287">
-        <v>0.9803447795823664</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F287">
-        <v>0.05514527617471413</v>
+        <v>0.1245421803167517</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B288" t="s">
-        <v>342</v>
-      </c>
       <c r="D288">
-        <v>0.4365501488095238</v>
+        <v>0.3987351190476191</v>
       </c>
       <c r="E288">
-        <v>0.9803447795823664</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F288">
-        <v>0.0533244023446039</v>
+        <v>0.1242753164564149</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6526,16 +6556,16 @@
         <v>293</v>
       </c>
       <c r="B289" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D289">
-        <v>0.4383922619047619</v>
+        <v>0.4009970238095238</v>
       </c>
       <c r="E289">
-        <v>0.9802696103896104</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F289">
-        <v>0.05227638549988139</v>
+        <v>0.1237772918359131</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6543,16 +6573,16 @@
         <v>294</v>
       </c>
       <c r="B290" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D290">
-        <v>0.4383995535714286</v>
+        <v>0.4015178571428572</v>
       </c>
       <c r="E290">
-        <v>0.9802696103896104</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F290">
-        <v>0.05225523150179386</v>
+        <v>0.1236411174509061</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6560,16 +6590,16 @@
         <v>295</v>
       </c>
       <c r="B291" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D291">
-        <v>0.4439327380952381</v>
+        <v>0.4027827380952381</v>
       </c>
       <c r="E291">
-        <v>0.9756637075718017</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F291">
-        <v>0.04878578519002202</v>
+        <v>0.1234086198361991</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6577,16 +6607,16 @@
         <v>296</v>
       </c>
       <c r="B292" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D292">
-        <v>0.4447779761904762</v>
+        <v>0.4035119047619048</v>
       </c>
       <c r="E292">
-        <v>0.9756637075718017</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F292">
-        <v>0.04814752101877291</v>
+        <v>0.1232771055315383</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6594,16 +6624,16 @@
         <v>297</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="D293">
-        <v>0.4453110119047619</v>
+        <v>0.4048214285714286</v>
       </c>
       <c r="E293">
-        <v>0.9756637075718017</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F293">
-        <v>0.04772035777179174</v>
+        <v>0.1229892558148915</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6611,16 +6641,16 @@
         <v>298</v>
       </c>
       <c r="B294" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D294">
-        <v>0.4466083333333333</v>
+        <v>0.4055059523809524</v>
       </c>
       <c r="E294">
-        <v>0.9756637075718017</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F294">
-        <v>0.04694088378128412</v>
+        <v>0.1228245201874995</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6628,16 +6658,16 @@
         <v>299</v>
       </c>
       <c r="B295" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D295">
-        <v>0.4471796130952381</v>
+        <v>0.4062053571428572</v>
       </c>
       <c r="E295">
-        <v>0.9756637075718017</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F295">
-        <v>0.04650836541245373</v>
+        <v>0.1226905377615791</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6645,16 +6675,16 @@
         <v>300</v>
       </c>
       <c r="B296" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D296">
-        <v>0.4484894345238095</v>
+        <v>0.4072767857142857</v>
       </c>
       <c r="E296">
-        <v>0.9756637075718017</v>
+        <v>0.9277627118644068</v>
       </c>
       <c r="F296">
-        <v>0.04567830163359012</v>
+        <v>0.122434844430129</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6662,16 +6692,16 @@
         <v>301</v>
       </c>
       <c r="B297" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="D297">
-        <v>0.4494001488095238</v>
+        <v>0.4115178571428572</v>
       </c>
       <c r="E297">
-        <v>0.9756637075718017</v>
+        <v>0.9342567567567568</v>
       </c>
       <c r="F297">
-        <v>0.04522457904131592</v>
+        <v>0.1216535861065591</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6679,16 +6709,16 @@
         <v>302</v>
       </c>
       <c r="B298" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D298">
-        <v>0.4515846726190476</v>
+        <v>0.4136160714285714</v>
       </c>
       <c r="E298">
-        <v>0.9756637075718017</v>
+        <v>0.9348</v>
       </c>
       <c r="F298">
-        <v>0.04387995879441549</v>
+        <v>0.1213075888568648</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6696,16 +6726,16 @@
         <v>303</v>
       </c>
       <c r="B299" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D299">
-        <v>0.4537940476190476</v>
+        <v>0.4161607142857143</v>
       </c>
       <c r="E299">
-        <v>0.9756637075718017</v>
+        <v>0.9348</v>
       </c>
       <c r="F299">
-        <v>0.04236589648422728</v>
+        <v>0.1208640734955136</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6713,16 +6743,16 @@
         <v>304</v>
       </c>
       <c r="B300" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D300">
-        <v>0.4584650297619048</v>
+        <v>0.4171577380952381</v>
       </c>
       <c r="E300">
-        <v>0.9730366310160428</v>
+        <v>0.9348</v>
       </c>
       <c r="F300">
-        <v>0.03914138169853196</v>
+        <v>0.1207154278174292</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6730,16 +6760,16 @@
         <v>305</v>
       </c>
       <c r="B301" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D301">
-        <v>0.4634425595238095</v>
+        <v>0.4173214285714286</v>
       </c>
       <c r="E301">
-        <v>0.9666726541554959</v>
+        <v>0.9348</v>
       </c>
       <c r="F301">
-        <v>0.03610742418736655</v>
+        <v>0.1206637224517503</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6747,16 +6777,16 @@
         <v>306</v>
       </c>
       <c r="B302" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D302">
-        <v>0.4636415178571429</v>
+        <v>0.4229017857142857</v>
       </c>
       <c r="E302">
-        <v>0.9666726541554959</v>
+        <v>0.9441528239202658</v>
       </c>
       <c r="F302">
-        <v>0.03594591732576061</v>
+        <v>0.1196945124530403</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6764,16 +6794,16 @@
         <v>307</v>
       </c>
       <c r="B303" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D303">
-        <v>0.4656355654761905</v>
+        <v>0.4251041666666667</v>
       </c>
       <c r="E303">
-        <v>0.9666726541554959</v>
+        <v>0.9459271523178808</v>
       </c>
       <c r="F303">
-        <v>0.03453201279798918</v>
+        <v>0.1192986421756534</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6781,16 +6811,16 @@
         <v>308</v>
       </c>
       <c r="B304" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D304">
-        <v>0.4676852678571429</v>
+        <v>0.4277827380952381</v>
       </c>
       <c r="E304">
-        <v>0.9666726541554959</v>
+        <v>0.9487458745874588</v>
       </c>
       <c r="F304">
-        <v>0.0331416152607319</v>
+        <v>0.1186073940915272</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6798,16 +6828,16 @@
         <v>309</v>
       </c>
       <c r="B305" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D305">
-        <v>0.4677311011904762</v>
+        <v>0.4294196428571429</v>
       </c>
       <c r="E305">
-        <v>0.9666726541554959</v>
+        <v>0.9492434210526316</v>
       </c>
       <c r="F305">
-        <v>0.03311011350276546</v>
+        <v>0.1182040386923251</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6818,13 +6848,13 @@
         <v>409</v>
       </c>
       <c r="D306">
-        <v>0.469758630952381</v>
+        <v>0.4356696428571429</v>
       </c>
       <c r="E306">
-        <v>0.9666726541554959</v>
+        <v>0.9597058823529412</v>
       </c>
       <c r="F306">
-        <v>0.03166180995215663</v>
+        <v>0.116550969099618</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6832,16 +6862,16 @@
         <v>311</v>
       </c>
       <c r="B307" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D307">
-        <v>0.4737577380952381</v>
+        <v>0.4370089285714286</v>
       </c>
       <c r="E307">
-        <v>0.9635858310626704</v>
+        <v>0.9597058823529412</v>
       </c>
       <c r="F307">
-        <v>0.02885515713555601</v>
+        <v>0.1160199002976801</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6849,16 +6879,16 @@
         <v>312</v>
       </c>
       <c r="B308" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D308">
-        <v>0.4738763392857143</v>
+        <v>0.4416220238095238</v>
       </c>
       <c r="E308">
-        <v>0.9635858310626704</v>
+        <v>0.9662057877813504</v>
       </c>
       <c r="F308">
-        <v>0.02878062227067638</v>
+        <v>0.1141351071617838</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6866,16 +6896,16 @@
         <v>313</v>
       </c>
       <c r="B309" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D309">
-        <v>0.4760309523809524</v>
+        <v>0.4458630952380953</v>
       </c>
       <c r="E309">
-        <v>0.9635858310626704</v>
+        <v>0.9662057877813504</v>
       </c>
       <c r="F309">
-        <v>0.02727750801547027</v>
+        <v>0.1117361662423024</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6886,13 +6916,13 @@
         <v>410</v>
       </c>
       <c r="D310">
-        <v>0.4769955357142857</v>
+        <v>0.4461309523809524</v>
       </c>
       <c r="E310">
-        <v>0.9635858310626704</v>
+        <v>0.9662057877813504</v>
       </c>
       <c r="F310">
-        <v>0.02658907466667917</v>
+        <v>0.1114842297406814</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6900,16 +6930,16 @@
         <v>315</v>
       </c>
       <c r="B311" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D311">
-        <v>0.4770290178571429</v>
+        <v>0.4466517857142857</v>
       </c>
       <c r="E311">
-        <v>0.9635858310626704</v>
+        <v>0.9662057877813504</v>
       </c>
       <c r="F311">
-        <v>0.02658298379871388</v>
+        <v>0.1110868317818881</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6920,13 +6950,13 @@
         <v>411</v>
       </c>
       <c r="D312">
-        <v>0.4775782738095238</v>
+        <v>0.4471577380952381</v>
       </c>
       <c r="E312">
-        <v>0.9635858310626704</v>
+        <v>0.9662057877813504</v>
       </c>
       <c r="F312">
-        <v>0.02629185954937653</v>
+        <v>0.110701472808623</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6934,16 +6964,16 @@
         <v>317</v>
       </c>
       <c r="B313" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="D313">
-        <v>0.4781830357142857</v>
+        <v>0.4531845238095238</v>
       </c>
       <c r="E313">
-        <v>0.9635858310626704</v>
+        <v>0.9760897435897437</v>
       </c>
       <c r="F313">
-        <v>0.02589656372495401</v>
+        <v>0.1059111483652327</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6951,16 +6981,16 @@
         <v>318</v>
       </c>
       <c r="B314" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D314">
-        <v>0.4806627976190476</v>
+        <v>0.4578869047619048</v>
       </c>
       <c r="E314">
-        <v>0.9635858310626704</v>
+        <v>0.9803184713375795</v>
       </c>
       <c r="F314">
-        <v>0.02399772832257332</v>
+        <v>0.1020051913170863</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6968,16 +6998,16 @@
         <v>319</v>
       </c>
       <c r="B315" t="s">
-        <v>342</v>
+        <v>412</v>
       </c>
       <c r="D315">
-        <v>0.4818096726190476</v>
+        <v>0.4580654761904762</v>
       </c>
       <c r="E315">
-        <v>0.9635858310626704</v>
+        <v>0.9803184713375795</v>
       </c>
       <c r="F315">
-        <v>0.02332102066627004</v>
+        <v>0.1018145086024196</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6985,16 +7015,16 @@
         <v>320</v>
       </c>
       <c r="B316" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D316">
-        <v>0.4861102678571429</v>
+        <v>0.4617410714285714</v>
       </c>
       <c r="E316">
-        <v>0.9635858310626704</v>
+        <v>0.9850476190476189</v>
       </c>
       <c r="F316">
-        <v>0.02047418290730277</v>
+        <v>0.09928676285761916</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7002,16 +7032,16 @@
         <v>321</v>
       </c>
       <c r="B317" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D317">
-        <v>0.4874693452380953</v>
+        <v>0.4655208333333333</v>
       </c>
       <c r="E317">
-        <v>0.9635858310626704</v>
+        <v>0.9883229813664596</v>
       </c>
       <c r="F317">
-        <v>0.01955685101851925</v>
+        <v>0.09622535736087028</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7019,16 +7049,16 @@
         <v>322</v>
       </c>
       <c r="B318" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D318">
-        <v>0.4890041666666667</v>
+        <v>0.4688244047619048</v>
       </c>
       <c r="E318">
-        <v>0.9635858310626704</v>
+        <v>0.9883229813664596</v>
       </c>
       <c r="F318">
-        <v>0.0183830262359718</v>
+        <v>0.09404970915632617</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7036,16 +7066,16 @@
         <v>323</v>
       </c>
       <c r="B319" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D319">
-        <v>0.4896308035714286</v>
+        <v>0.4688839285714286</v>
       </c>
       <c r="E319">
-        <v>0.9635858310626704</v>
+        <v>0.9883229813664596</v>
       </c>
       <c r="F319">
-        <v>0.01782290862632669</v>
+        <v>0.09398273323229336</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7053,16 +7083,16 @@
         <v>324</v>
       </c>
       <c r="B320" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D320">
-        <v>0.4906988095238095</v>
+        <v>0.4699404761904762</v>
       </c>
       <c r="E320">
-        <v>0.9635858310626704</v>
+        <v>0.9883229813664596</v>
       </c>
       <c r="F320">
-        <v>0.01698188923432606</v>
+        <v>0.09331300289640319</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7070,16 +7100,16 @@
         <v>325</v>
       </c>
       <c r="B321" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D321">
-        <v>0.4916238095238095</v>
+        <v>0.4709821428571429</v>
       </c>
       <c r="E321">
-        <v>0.9635858310626704</v>
+        <v>0.9883229813664596</v>
       </c>
       <c r="F321">
-        <v>0.01630567254537876</v>
+        <v>0.09257692575794807</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7087,16 +7117,16 @@
         <v>326</v>
       </c>
       <c r="B322" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D322">
-        <v>0.4921071428571429</v>
+        <v>0.4729166666666666</v>
       </c>
       <c r="E322">
-        <v>0.9635858310626704</v>
+        <v>0.9883229813664596</v>
       </c>
       <c r="F322">
-        <v>0.01597723379373249</v>
+        <v>0.09118522859169216</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7104,16 +7134,16 @@
         <v>327</v>
       </c>
       <c r="B323" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D323">
-        <v>0.4928443452380952</v>
+        <v>0.4735714285714286</v>
       </c>
       <c r="E323">
-        <v>0.9635858310626704</v>
+        <v>0.9883229813664596</v>
       </c>
       <c r="F323">
-        <v>0.01549182796666871</v>
+        <v>0.0908266412651004</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7121,16 +7151,16 @@
         <v>328</v>
       </c>
       <c r="B324" t="s">
-        <v>413</v>
+        <v>339</v>
       </c>
       <c r="D324">
-        <v>0.4945830357142857</v>
+        <v>0.4766071428571429</v>
       </c>
       <c r="E324">
-        <v>0.9635858310626704</v>
+        <v>0.991578947368421</v>
       </c>
       <c r="F324">
-        <v>0.01429231461715455</v>
+        <v>0.08835965902759273</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7138,16 +7168,16 @@
         <v>329</v>
       </c>
       <c r="B325" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D325">
-        <v>0.4949169642857143</v>
+        <v>0.4781994047619048</v>
       </c>
       <c r="E325">
-        <v>0.9635858310626704</v>
+        <v>0.9918209876543208</v>
       </c>
       <c r="F325">
-        <v>0.01407689958559583</v>
+        <v>0.08690690819055198</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7155,16 +7185,16 @@
         <v>330</v>
       </c>
       <c r="B326" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D326">
-        <v>0.4966438988095238</v>
+        <v>0.4842410714285714</v>
       </c>
       <c r="E326">
-        <v>0.9635858310626704</v>
+        <v>0.9919634703196348</v>
       </c>
       <c r="F326">
-        <v>0.01278074590424532</v>
+        <v>0.0805821091620551</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7172,16 +7202,16 @@
         <v>331</v>
       </c>
       <c r="B327" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="D327">
-        <v>0.498925</v>
+        <v>0.489985119047619</v>
       </c>
       <c r="E327">
-        <v>0.9635858310626704</v>
+        <v>0.9876945244956772</v>
       </c>
       <c r="F327">
-        <v>0.01128818397972638</v>
+        <v>0.07296425396745781</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7189,16 +7219,16 @@
         <v>332</v>
       </c>
       <c r="B328" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D328">
-        <v>0.4996705357142857</v>
+        <v>0.4922470238095238</v>
       </c>
       <c r="E328">
-        <v>0.9635858310626704</v>
+        <v>0.9861560693641619</v>
       </c>
       <c r="F328">
-        <v>0.01032230917442688</v>
+        <v>0.06932375579704818</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7206,16 +7236,16 @@
         <v>333</v>
       </c>
       <c r="B329" t="s">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="D329">
-        <v>0.4979578869047619</v>
+        <v>0.4957142857142857</v>
       </c>
       <c r="E329">
-        <v>0.9635858310626704</v>
+        <v>0.9655652173913044</v>
       </c>
       <c r="F329">
-        <v>0.009203521269541073</v>
+        <v>0.05368812917733828</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7223,16 +7253,16 @@
         <v>334</v>
       </c>
       <c r="B330" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="D330">
-        <v>0.4969319940476191</v>
+        <v>0.4946130952380952</v>
       </c>
       <c r="E330">
-        <v>0.9635858310626704</v>
+        <v>0.9655652173913044</v>
       </c>
       <c r="F330">
-        <v>0.00837468574020568</v>
+        <v>0.05252652647783664</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7240,16 +7270,16 @@
         <v>335</v>
       </c>
       <c r="B331" t="s">
-        <v>414</v>
+        <v>339</v>
       </c>
       <c r="D331">
-        <v>0.4959543154761905</v>
+        <v>0.4929613095238095</v>
       </c>
       <c r="E331">
-        <v>0.9635858310626704</v>
+        <v>0.9655652173913044</v>
       </c>
       <c r="F331">
-        <v>0.007683878236630129</v>
+        <v>0.05084851679511047</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7257,16 +7287,16 @@
         <v>336</v>
       </c>
       <c r="B332" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="D332">
-        <v>0.48825625</v>
+        <v>0.485</v>
       </c>
       <c r="E332">
-        <v>0.9593807017543859</v>
+        <v>0.9529824561403508</v>
       </c>
       <c r="F332">
-        <v>0.001953900321801412</v>
+        <v>0.02912623832602064</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7274,16 +7304,16 @@
         <v>337</v>
       </c>
       <c r="B333" t="s">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="D333">
-        <v>0.4875565476190476</v>
+        <v>0.4794940476190476</v>
       </c>
       <c r="E333">
-        <v>0.9593807017543859</v>
+        <v>0.9449266862170088</v>
       </c>
       <c r="F333">
-        <v>0.001521891291209313</v>
+        <v>0.01364055557247859</v>
       </c>
     </row>
   </sheetData>
